--- a/interim/qatar_embassies_stats.xlsx
+++ b/interim/qatar_embassies_stats.xlsx
@@ -1109,12 +1109,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['af', 'it', 'en', 'ar', 'fr']</t>
+          <t>['af', 'fr', 'en', 'ar']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['en', 'tr', 'pl', 'so', 'de', 'ar', 'id', 'ca', 'fr', 'es', 'tl', 'undetected']</t>
+          <t>['en', 'tr', 'pl', 'de', 'ar', 'id', 'ca', 'fr', 'es', 'et', 'tl', 'undetected']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['en', 'so', 'ja', 'id', 'ar', 'fr']</t>
+          <t>['en', 'ja', 'pt', 'id', 'ar', 'fr']</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>['en', 'nl', 'tr', 'so', 'id', 'ar', 'ca', 'fr', 'es', 'undetected']</t>
+          <t>['en', 'nl', 'tr', 'so', 'id', 'ar', 'fr', 'es', 'undetected']</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>['fa', 'it', 'en', 'so', 'pt', 'ca', 'ar', 'id', 'et', 'es', 'undetected']</t>
+          <t>['fa', 'en', 'so', 'pt', 'ca', 'ar', 'id', 'et', 'es', 'undetected']</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>['de', 'en', 'undetected', 'ar']</t>
+          <t>['undetected', 'en', 'de', 'ar']</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>['es', 'en', 'undetected', 'ar']</t>
+          <t>['en', 'ca', 'ar', 'es', 'undetected']</t>
         </is>
       </c>
     </row>

--- a/interim/qatar_embassies_stats.xlsx
+++ b/interim/qatar_embassies_stats.xlsx
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['en', 'de', 'ar']</t>
+          <t>['de', 'ar', 'en']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1089,112 +1089,112 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['es', 'id', 'ca', 'ar']</t>
+          <t>['ar', 'so', 'es', 'id', 'ca']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['af', 'en', 'undetected', 'ar']</t>
+          <t>['undetected', 'af', 'ar', 'en']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['undetected', 'ar', 'so']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['ar', 'fr', 'so']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['ar', 'en', 'af', 'fr', 'it']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['ar', 'en', 'tr', 'fr', 'pl', 'undetected', 'es', 'tl', 'de', 'id', 'ca']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['pt', 'ar', 'en']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['ar', 'en', 'fr', 'pt', 'id', 'ja']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>['undetected', 'ar']</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['fr', 'ar', 'so']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['af', 'fr', 'en', 'ar']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['en', 'tr', 'pl', 'de', 'ar', 'id', 'ca', 'fr', 'es', 'et', 'tl', 'undetected']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['en', 'pt', 'ar']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['en', 'ja', 'pt', 'id', 'ar', 'fr']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>['ar', 'sv', 'en', 'it', 'es']</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>['undetected', 'ar']</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>['it', 'en', 'ar', 'es', 'sv']</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>['undetected', 'ar']</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['en', 'pl', 'id', 'ar', 'undetected']</t>
+          <t>['ar', 'en', 'pl', 'undetected', 'id']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>['en', 'undetected']</t>
+          <t>['undetected', 'en']</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>['en', 'ar', 'fr', 'es', 'undetected']</t>
+          <t>['ar', 'en', 'fr', 'undetected', 'es']</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>['en', 'nl', 'tr', 'so', 'id', 'ar', 'fr', 'es', 'undetected']</t>
+          <t>['ar', 'nl', 'en', 'tr', 'fr', 'undetected', 'es', 'id']</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>['en', 'ko', 'ca', 'ar', 'id', 'undetected']</t>
+          <t>['ar', 'en', 'ko', 'undetected', 'id', 'ca']</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>['en', 'undetected', 'ar', 'so']</t>
+          <t>['undetected', 'ar', 'en', 'so']</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>['fa', 'en', 'so', 'pt', 'ca', 'ar', 'id', 'et', 'es', 'undetected']</t>
+          <t>['ar', 'en', 'et', 'hu', 'fa', 'undetected', 'pt', 'it', 'es', 'id', 'ca']</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>['en', 'so', 'tr', 'ca', 'ar', 'de', 'es', 'fr', 'undetected']</t>
+          <t>['ar', 'en', 'tr', 'fr', 'so', 'undetected', 'es', 'de', 'ca']</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>['undetected', 'en', 'de', 'ar']</t>
+          <t>['de', 'ar', 'en', 'undetected']</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>['es', 'en', 'ar']</t>
+          <t>['ar', 'es', 'en']</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>['en', 'ca', 'ar', 'es', 'undetected']</t>
+          <t>['ar', 'en', 'so', 'undetected', 'es']</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['#برلين،وكلنا', '#Qatar,', '#اليوم_الوطني_القطري', '#Qatar', '#Doha', '#كأس_العالم_2022', '#كأس_العالم_قطر_2022', '#المملكة_المغربية', '#المغرب_أسبانيا', '#قطر', '#FIFAWorldCupQatar2022', '#اليوم_الوطني_العُماني_52', '#قطر2022', '#MOFAQatar', '#الخارجية_القطرية', '#QatarWorldCup2022', '#Qatar2022', '#WorldCup2022', '#برلين', '#FIFAWorldCup2022', '#عُمان', '#TagderDeutschenEinheit', '#Berlin.We', '#FIFAWorldCup']</t>
+          <t>['#المغرب_أسبانيا', '#FIFAWorldCup2022', '#اليوم_الوطني_القطري', '#Qatar2022', '#FIFAWorldCup', '#MOFAQatar', '#WorldCup2022', '#كأس_العالم_قطر_2022', '#FIFAWorldCupQatar2022', '#برلين', '#اليوم_الوطني_العُماني_52', '#كأس_العالم_2022', '#قطر2022', '#Qatar,', '#برلين،وكلنا', '#Doha', '#TagderDeutschenEinheit', '#Qatar', '#المملكة_المغربية', '#عُمان', '#الخارجية_القطرية', '#QatarWorldCup2022', '#Berlin.We', '#قطر']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1216,52 +1216,52 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['#مونديال_القرن', '#México.', '#happynewyear', '#qatar2022', '#2023,', '#Qatar2022!', '#Doha.', '#عالوعد', '#Qatar2022.', '#CentroMéxicoQatar2022', '#Qatar2022', '#QatarFácil,', '#elmundialdelsiglo', '#FIFAWorldCup', '#قطر2022']</t>
+          <t>['#happynewyear', '#México.', '#Qatar2022.', '#FIFAWorldCup', '#qatar2022', '#Doha.', '#CentroMéxicoQatar2022', '#2023,', '#قطر2022', '#Qatar2022!', '#QatarFácil,', '#مونديال_القرن', '#Qatar2022', '#عالوعد', '#elmundialdelsiglo']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>["#Qatar's", '#MAR!', '#ArabLeague', '#QNV2030.', '#NowIsAll', '#Qatar,', '#ARGFRA,', '#Qatar', '#اليوم_الوطني_القطري', '#PassItOn', '#USQatar50', '#Qatar_National_Day', '#AllForAlAnnabi', '#Qatar2022.', '#AlAnnabi', '#US', '#ForTheLoveOfQatar', '#IMFMeetings', '#Qatar!', '#Shura_Council', '#VisiontoReality', '#QFC', '#WorldFoodDay,', '#Qatar2022!', '#MOFAQatar', '#NowisAll', '#QatarUSA', '#SafirDavisFiDoha', '#Egypt', '#QatarWorldCup2022', '#Qatar2022', '#Qatar_National_Day’s', '#COP27', '#MOFQATAR', '#NationalDay.', '#Qatar.', '#OnlyForward', '#Qatar’s', '#WorldCup', '#SafirDavisfiDoha', '#HRV', '#Qatar_National_Day,', '#EndLearningPoverty', '#UnitedNationsDay,', '#FIFAWorldCup', '#IMF']</t>
+          <t>['#EndLearningPoverty', '#IMFMeetings', '#HRV', '#OnlyForward', '#NowisAll', '#ForTheLoveOfQatar', "#Qatar's", '#NationalDay.', '#USQatar50', '#SafirDavisFiDoha', '#VisiontoReality', '#Qatar_National_Day’s', '#Qatar’s', '#اليوم_الوطني_القطري', '#Qatar2022', '#ARGFRA,', '#NowIsAll', '#IMF', '#AlAnnabi', '#AllForAlAnnabi', '#Qatar2022.', '#FIFAWorldCup', '#Qatar_National_Day', '#MAR!', '#QNV2030.', '#MOFAQatar', '#Qatar.', '#QFC', '#SafirDavisfiDoha', '#Qatar_National_Day,', '#US', '#ArabLeague', '#COP27', '#Egypt', '#Qatar,', '#WorldCup', '#Qatar', '#PassItOn', '#WorldFoodDay,', '#MOFQATAR', '#Shura_Council', '#QatarWorldCup2022', '#QatarUSA', '#UnitedNationsDay,', '#Qatar2022!', '#Qatar!']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['#worldcupqatar2022', '#كأس_العالم_قطر2022', '#RoadToQatar2022', '#صحة', '#المغرب', '#قنا_رياضي', '#Qatar_2022', '#كأس_العالم', '#ديما_مغرب', '#وحدتنا_مصدر_قوتنا', '#كأس_العالم_قطر_2022', '#عالوعد', '#المملكة_المغربية', '#الاتحاد_الآسيوي', '#Roadto2022', '#roadtoqatar2022', '#قطر', '#كأس_آسيا_2023', '#قطر2022', '#Road_To_Qatar', '#فيفا', '#قطر2022،', '#بن_جرير،', '#الخارجية_القطرية', '#العدل_قطر', '#التجارة_والصناعة', '#TED_بالعربي', '#أسود_الأطلس', '#Qatar2022', '#roadto2022', '#مستشفى', '#قنا', '#فيفا_قطر2022', '#اليونسكو', '#الإيسيسكو', '#قطر2022.', '#اعمال_خير', '#الیوم_الوطني_القطري', '#worldcupforall', '#qatar2022', '#fifaworldcup', '#قطر_المغرب', '#FIFAWorldCup']</t>
+          <t>['#RoadToQatar2022', '#اليونسكو', '#قنا', '#مستشفى', '#قنا_رياضي', '#التجارة_والصناعة', '#فيفا_قطر2022', '#roadtoqatar2022', '#Qatar2022', '#قطر_المغرب', '#worldcupqatar2022', '#وحدتنا_مصدر_قوتنا', '#FIFAWorldCup', '#TED_بالعربي', '#qatar2022', '#فيفا', '#كأس_العالم_قطر2022', '#كأس_آسيا_2023', '#كأس_العالم_قطر_2022', '#بن_جرير،', '#صحة', '#اعمال_خير', '#أسود_الأطلس', '#قطر2022،', '#fifaworldcup', '#ديما_مغرب', '#قطر2022', '#roadto2022', '#الإيسيسكو', '#عالوعد', '#worldcupforall', '#المغرب', '#Qatar_2022', '#قطر2022.', '#المملكة_المغربية', '#Road_To_Qatar', '#كأس_العالم', '#الخارجية_القطرية', '#العدل_قطر', '#الیوم_الوطني_القطري', '#قطر', '#Roadto2022', '#الاتحاد_الآسيوي']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['#فرنسا', '#ConférenceUkraine', '#France', '#Qatar,', '#Qatar', '#CDM2022', '#السودان', '#Monaco', '#culture', '#قطر', '#MOFAQatar', '#France,', '#MonteCarlo', '#art', '#Qatar.', '#الكويت', '#Paris.', '#Qadran_', '#arabe.', '#digitalnomadism', '#فرنسا،', '#snba']</t>
+          <t>['#السودان', '#الكويت', '#CDM2022', '#ConférenceUkraine', '#فرنسا،', '#France', '#MonteCarlo', '#arabe.', '#MOFAQatar', '#Monaco', '#Qatar.', '#culture', '#art', '#digitalnomadism', '#Qatar,', '#Qatar', '#فرنسا', '#Qadran_', '#Paris.', '#snba', '#قطر', '#France,']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>["#Qatar's", '#Canada', '#FIFAWorldCupQatar2022.', '#Doha,', '#WorldCup.', '#Qatar,', '#WorldCupQatar2022', '#Qatar', '#WorldCup2022.', '#QNA_Sport', '#Doha', '#MSC', '#WeCAN', '#Türkiye,', '#ICAOA41', '#Qatar2022.', '#AlAnnabi', '#molqtr', '#Qatar!', '#Shura_Council', '#VisiontoReality', '#FIFAWorldCupQatar2022', '#QatarAirways', '#LusailBoulevard', '#MOFAQatar', '#NowisAll', '#قطر2022', '#Egypt', '#Algeria', '#Canada!', '#UNDay', '#Qatar2022', '#WorldCup2022', '#COP27', "#Qatar'?", '#QNA', '#Qatar’s', '#WorldCup', '#FIFAWorldCup', '#FIFAWorldCup2022', '#Qatar_National_Day,', '#WorldCupQatar2022,', '#Qatar2022,', '#Safar,', '#QatarNationalDay']</t>
+          <t>['#FIFAWorldCup2022', '#NowisAll', "#Qatar's", '#QNA', '#WorldCup2022.', '#VisiontoReality', '#Safar,', '#Qatar’s', '#Qatar2022', '#AlAnnabi', '#Qatar2022.', '#molqtr', '#FIFAWorldCup', '#MSC', '#WorldCup.', '#WorldCupQatar2022', '#MOFAQatar', '#QNA_Sport', '#Canada!', '#WorldCup2022', '#WorldCupQatar2022,', '#Qatar2022,', '#FIFAWorldCupQatar2022', '#ICAOA41', '#Qatar_National_Day,', '#FIFAWorldCupQatar2022.', '#QatarAirways', '#COP27', '#Doha,', '#Egypt', '#قطر2022', '#Qatar,', '#WorldCup', '#Canada', '#Doha', '#QatarNationalDay', '#Qatar', '#Algeria', '#LusailBoulevard', '#UNDay', '#Türkiye,', '#Shura_Council', '#WeCAN', "#Qatar'?", '#Qatar!']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['#qatar', '#كأس_العالم_قطر2022', '#Qatar2022/', '#QatarWorldCup', '#كاس_العالم_FIFA', '#ميانمار', '#United_Nations', '#وزارة_العمل', '#كأس_العالم', '#كأس_العالم_2022', '#Qatar_Turkey', '#Messi', '#Qatar2022⚽️', '#CICA', '#Qatar2022!', '#Brazil', '#قنا_إنفوجرافيك', '#Spain,', '#European_Parliament', '#قنا', '#USA,', '#Lusail_Bus_Depot', '#الأردن', '#عُمان', '#المملكة_المتحدة', '#GenderParity', '#HumanRights', '#Kazakhastan', '#Indonesia.', '#StreetChildWorldCup', '#UN', '#قطر2022', '#NowisAll', '#بطاقة_هيّا', '#لبنان', "#International_Teachers'_Day", '#WomeninBusiness', '#حقوق_الانسان', '#WorldCup', '#قيرغيزيا،', '#Qatar_National_Day,', '#Romania', '#qatar2022', '#Watan_Exercise..Security', '#QNV2030,', '#Haya', '#الداخلية_قطر', '#Qatar_Austria', '#باريس2024', '#UNESCO', '#إيرلندا', '#ClimateChange', '#EMRTD,', '#Poland', '#الصين', '#panamá', '#Mogadishu', '#فيفا_قطر٢٠٢٢', '#ماليزيا', '#Qatar_2022', '#Qatari', '#كأس_العالم_قطر_2022', '#قطر_ألمانيا', '#Kuwait', '#PalestineRefugees.', '#Cambodia', '#ShereenAbuAkleh', '#قنا_انفوجرافيك', '#ثريا', '#Goal22', '#Hola', '#RoadtoDoha.', '#Jordan,', '#WorldCup2022', '#Judo', '#اليونسكو', '#Argentina', '#Somalia,', '#UNNY', '#التشيك', '#IMF', '#Vision2030Qatar', "#Qatar's", '#World_Cup_FIFA_Qatar_2022', '#الأمير_الصغير.', '#Qatar🇶🇦', '#Qatar,', '#Qatar', '#WorldCup,', '#Disarmament.', '#حلمنا_واقع', '#مقديشو', '#Ukraine.', '#humanright', '#Qatar_national_Day', '#ICAO', '#مؤتمر_ويش_2022،', '#مكتبة_قطر_الوطنية', '#FOSS', '#DPoA.', '#HamadPort', '#DPoA', '#اليوم_الدولي_للتضامن_مع_الشعب_الفلسطيني', '#للجنة', '#مرسال_قطر', '#قطر_أمريكا', '#FIFAWorldCup2022', '#Istanbul,', '#Girls.', '#Journalists,', '#Caracas', '#قنا_فيديو', '#AudiovisualHeritage', '#Malaysia,', '#WorldCup2022.', '#QNA_Sport', '#قطر_كازاخستان', '#London', '#Qatar_National_Day', '#Türkiye,', '#WomanLeader,', '#UNMediaSeminar', '#الخارجيةـالقطرية', '#CounterTerrorism', '#Kazakhstan', '#AsianCup2027', '#WomenEmpowerment', '#فيفا', '#ليبيا', '#قطر_٢٠٢٢،', '#España', '#Tajikistan’s', '#بولندا', '#ShireenAbuAkleh', '#Haya_card', '#Qatar2022', '#LDC', '#our_unity_source_of_our_strength', '#WISH', '#Washington', '#شيرين_أبوعاقلة', '#FIFA', '#Doha.', '#Total,', '#LDC5,', '#سهيل', '#UNECOSOC', '#AsianCup2023', '#FightTerrorism.', '#قطر٢٠٣٠', '#كلنا_الأدعم', '#MOIQatar', '#Syrian', '#UNGA77', '#WomenRights', '#IMFMeetings', '#EducationCity,', '#قطر', '#VisiontoReality', '#Arab_Summit', '#MOFAQatar', '#Libya', '#هيّا', '#InternationalLaw', '#أذربيجان', '#UNGA', "#Kazakhstan's", '#WHO', '#الأونروا', '#تلفزيون_قطر', '#كأس_العالم..', '#Kyrgyz', '#UnitedNationsDay,', '#Safar,', '#counterterrorism,', '#الباراغواي،', '#UNHQ', '#نديب_قطر', '#QNV2030', '#قطر_الجزائر', '#امريكا،', '#Croatia,', '#US', '#وزارة_الداخلية', '#PotentialstoProsperity', '#welcometoQatar', '#Algeria', '#الدوحة،', '#UNRWA,', '#Palestine', '#Haitian', '#Qatar.', '#UNOCTDohaHub', '#روسيا', '#ICAO41', '#حقوق_الإنسان_قطر', '#WTO', '#Our_Unity_Source_of_Our_Strength', '#Doha,', '#الأمم_المتحدة', '#sport.', '#GenderEquality.', '#Türkiye', '#MOLQTR', '#Scoring4TheGoals', '#Doha', '#QatarEnergy', '#QATAR2022', '#STFA!', '#Qatar_Türkiye', '#Information.', '#التجارة_والصناعة،', '#MoFaQatar', '#البرازيل', '#Azerbaijan', '#شيرينابوعاقلة', '#Ashghal', '#QatarUK', '#إيكاو', '#Astana', '#DYK❓️', '#SeeYouInQatar', '#التجارة_والصناعة', '#UNDay', '#Algeria.', '#qatarairways', '#قنا:', '#Qatar-@UN_OCT', '#FRQA50', '#فرنسا', '#YourSafetyIsMySafety', '#Health', '#AFCU17', '#ŚwiętoNiepodległości', '#MSC', '#Economy', '#WISH2022.#QNA', '#HLPF', '#EducationForAll', '#Tuesday.👇🏻', '#Olympic', '#العنابي', '#Algiers', '#Algeria_Summit', '#Football', '#SafirDavisfiDoha', '#H.E.', '#Terrorism', '#QNA_Video', '#أوكرانيا', '#اليوم_العالمي_للمعلم', '#humanidad', '#ILO’s', '#ICSS', '#UnitedNationsDay', '#Copa', '#Welcome', '#كأس_العالم_FIFA_قطر_2022', '#قطر_التشيك', '#Energy', '#اليوم-الدولي_للمعلمين', '#UNDay,', '#ICAOA41', '#لندن', '#HumanRightsDay', '#UNDay2022', '#عالوعد', '#Qatar_Czech', '#WorldcupQatar2022', '#SDGs', '#Iraqi', '#Migration,', '#WISHQatar2022', '#SDGs,', '#Baku', '#CICASummit2022', '#aviation', '#Djibouti,', '#Paraguay,', '#الطيران_المدني', '#Int’l', '#COP27', '#كوستاريكا', '#QNA_Infographic', '#United_Kingdom', '#كرواتيا،', '#LDC5.', '#Indonesia', '#OrangeTheWorld', '#زيمبابوي', '#بلجيكا،', '#USQatar50', '#EnergyEfficiency', '#Multilateralism', '#ForTheLoveOfQatar', '#Afghanistan,', '#MOCIQATAR', '#Qatar_Germany', '#ParlCH’s', '#SDG5', '#UNSC', '#SafirDavisFiDoha', '#intellectual_property', '#كازاخستان', '#إسبانيا', '#الكويت', '#2022WorldCup', '#Qatar2022,', '#Afghanistan', '#MakeImpunityVisible', '#UNGA77,', '#ميسي', '#قنا_رياضي', '#كأس_العالم_قطر_2022،', '#كلنا_العنابي', '#وحدتنا_مصدر_قوتنا', '#QatarStadiums', '#AlAnnabi', '#HRC51', '#Riyadh,', '#Qatar2022™', '#FIFAWorldCupQatar2022', '#الخارجية_القطرية', '#QatarWorldCup2022', '#رؤية_قطر_الوطنية_2030.', '#الدوحة', '#UN4All', '#Qatar’s', '#Kazakhstan.', '#UNHCR', '#Russia', '#قطر_2022', '#Qatar_Kazakhstan', '#قطر_النمسا', "#Jordan's", '#COVID19', '#GenderEquality', '#DohaDeclaration,', '#MOCIQATAR,', '#Hungary,', '#World_Cup', '#QNA_Sports', '#الإمارات', '#Kazakhstan,', '#Shura_Council', '#CoupeDuMondeFIFA', '#FIFA2022Qatar.', '#discurso_SuAlteza_Consejo_de_Shura', '#قطر_تركيا', '#SICA,', '#Burundi', '#Kyrgyzstan,', '#تركيا', '#Women', '#ExCom2022', '#الجزائر', '#FIFAWorldCup', '#QatarNationalDay', '#World_cup_Qatar_2023', '#LDC5', '#ProtectJournalists', '#اليوم_الوطني_القطري', '#جريدة_الوطن_القطرية', '#قطر٢٠٢٢_فرحة_للجميع', '#المغرب', '#اليوم_العالمي_للغة_العربية', '#اليمن', '#Qatar2022.', '#World_Cup.', '#مجلس_الشورى،', '#AviationTogether', '#US.', '#Geneva', '#حياكم_في_قطر', '#QatarAirways', '#USA', '#قطر_للطاقة\u2063', '#Egypt', '#QatarWorldCup_2022', '#MOFQATAR', '#YourEnergyTransitionPartner\u2063\u2063', '#Sierra_Leone.', '#SolidarityWithPalestinianPeople', '#العنابي_أقوى_بتشجعيكم', '#', '#QNA:', '#MOFA_QATAR', '#Construction', '#Brasil', '#LDCs', '#IPI', '#QNV2030.', '#AlKass_Sports', '#مجلس_الشورى', '#حقوق_الإنسان', '#الرياض،', '#Venezuela', '#FIFA_World_Cup_Qatar2022', '#اليوم_العالمي_للعصا_البيضاء', '#CostaRica', '#هنغاريا،', '#قطر2022،', '#UNRWA', '#Tanzania', '#FIFArabCup', '#World_Cup_2022', '#Russian', '#Kathmandu🇳🇵', '#يوم_الأمم_المتحدة', '#QNA', '#Parguay', '#Cuban', '#RuleOfLaw', '#Indonisia', '#Agenda2030', '#WeAreTeamQatar', '#Turkey', '#France', '#NowIsAll', '#حقوق_الأنسان_قطر', '#WorldCupQatar2022', '#AllForAlAnnabi', '#السعوديه_الارجنتين', '#molqtr', '#Sustainability', '#Roadto2022', '#Mofa_qatar', '#Qatar2022⚽️,', '#qatarie', '#FIFA’s', '#تمرين_وطن..', '#16days', '#النيبال', '#مونديال_قطر_2022..', '#Qatar_Algeria', '#Spain', '#Swizerland']</t>
+          <t>['#ShereenAbuAkleh', '#ForTheLoveOfQatar', '#sport.', '#الجزائر', '#WorldCup2022.', '#UNGA77,', '#قطر_التشيك', '#Indonesia', '#PalestineRefugees.', '#FOSS', '#MOIQatar', '#IPI', '#Messi', '#لبنان', '#قنا_إنفوجرافيك', '#Qatari', '#قطر_2022', '#MOCIQATAR,', '#WomenEmpowerment', '#قنا:', '#لندن', '#فرنسا', '#FIFA2022Qatar.', '#World_Cup_FIFA_Qatar_2022', '#كوستاريكا', '#الخارجية_القطرية', '#رؤية_قطر_الوطنية_2030.', '#GenderEquality.', '#YourEnergyTransitionPartner\u2063\u2063', '#Cambodia', '#UNGA', '#جريدة_الوطن_القطرية', '#Spain', '#España', '#Multilateralism', '#Qatar_National_Day', '#Kathmandu🇳🇵', '#WorldCupQatar2022', '#H.E.', '#هيّا', '#WorldCup,', '#Qatar🇶🇦', '#UN4All', '#اليوم_العالمي_للعصا_البيضاء', '#Kyrgyzstan,', '#Haitian', '#InternationalLaw', '#Azerbaijan', '#SDGs', '#QatarWorldCup2022', '#QNA_Video', '#Tuesday.👇🏻', '#Parguay', '#STFA!', '#العنابي', '#مجلس_الشورى', '#اليوم_العالمي_للغة_العربية', '#EducationCity,', '#Geneva', '#Qatar_Turkey', '#قطر_النمسا', '#DohaDeclaration,', '#QatarStadiums', '#Qatar2022⚽️', '#كاس_العالم_FIFA', '#الباراغواي،', '#StreetChildWorldCup', '#ClimateChange', '#بلجيكا،', '#qatar', '#Migration,', '#Lusail_Bus_Depot', '#سهيل', '#ExCom2022', '#مكتبة_قطر_الوطنية', '#Türkiye', '#MOFA_QATAR', '#ParlCH’s', '#Kazakhstan,', '#إيكاو', '#الرياض،', '#UNESCO', '#قطر_تركيا', '#UN', '#IMF', '#كأس_العالم_قطر2022', '#شيرينابوعاقلة', '#MOFAQatar', '#تلفزيون_قطر', '#تركيا', '#Qatar2022⚽️,', '#USA,', '#قطر2022', '#Libya', '#UNHQ', '#قنا_انفوجرافيك', '#RoadtoDoha.', "#Qatar's", '#Qatar’s', '#Terrorism', '#Cuban', '#Qatar_Austria', '#molqtr', '#intellectual_property', '#CICA', '#EMRTD,', '#Tajikistan’s', '#Djibouti,', '#الطيران_المدني', '#Qatar2022,', '#قطر_أمريكا', '#UNNY', '#ShireenAbuAkleh', '#Istanbul,', '#كأس_العالم_2022', '#Doha,', '#Egypt', '#London', '#Kazakhstan', '#Mogadishu', '#عُمان', '#ProtectJournalists', '#ميسي', '#مرسال_قطر', '#UNECOSOC', '#QatarUK', '#FIFAWorldCup2022', '#الدوحة،', '#LDCs', '#بولندا', '#HumanRightsDay', '#Qatar2022', '#WHO', '#قيرغيزيا،', '#اليوم_الدولي_للتضامن_مع_الشعب_الفلسطيني', '#Hungary,', '#Baku', '#فيفا_قطر٢٠٢٢', '#Our_Unity_Source_of_Our_Strength', '#CounterTerrorism', '#DPoA.', '#QatarAirways', '#WomanLeader,', '#Brasil', '#قطر_ألمانيا', '#HamadPort', '#Health', '#World_Cup.', '#قنا_فيديو', '#نديب_قطر', '#الأمم_المتحدة', '#تمرين_وطن..', '#الأمير_الصغير.', '#Venezuela', '#الصين', '#Olympic', '#ILO’s', '#AllForAlAnnabi', "#International_Teachers'_Day", '#QNA_Sports', '#Haya_card', '#United_Nations', '#EnergyEfficiency', '#DYK❓️', '#السعوديه_الارجنتين', '#قطر٢٠٢٢_فرحة_للجميع', '#حقوق_الأنسان_قطر', '#امريكا،', '#Swizerland', '#Brazil', '#qatarie', '#UNRWA,', '#Qatar2022™', '#CICASummit2022', '#الإمارات', '#LDC5.', '#LDC5', '#humanright', '#WISHQatar2022', '#Shura_Council', '#Spain,', '#اليمن', '#Sustainability', '#Haya', '#Iraqi', '#Energy', '#Qatar_Kazakhstan', '#QNV2030,', '#وحدتنا_مصدر_قوتنا', '#Int’l', '#discurso_SuAlteza_Consejo_de_Shura', '#كأس_العالم_قطر_2022', '#كأس_العالم_قطر_2022،', '#FightTerrorism.', '#aviation', '#قطر2022،', '#Total,', '#UNMediaSeminar', '#GenderParity', '#كأس_العالم', '#روسيا', '#Afghanistan,', '#Women', '#World_cup_Qatar_2023', '#FIFA’s', '#حلمنا_واقع', '#البرازيل', '#AlAnnabi', '#Burundi', '#قطر_٢٠٢٢،', '#قطر_الجزائر', '#Turkey', '#Disarmament.', '#يوم_الأمم_المتحدة', '#USA', '#Croatia,', '#Qatar_National_Day,', '#Palestine', '#Agenda2030', '#', '#AudiovisualHeritage', '#Riyadh,', '#قطر_للطاقة\u2063', '#QatarWorldCup_2022', '#Kuwait', '#Journalists,', '#UnitedNationsDay,', '#Russian', '#Algeria_Summit', '#ميانمار', '#Judo', '#زيمبابوي', '#MoFaQatar', '#Romania', '#QNV2030', '#Doha.', '#Construction', '#Argentina', '#SafirDavisfiDoha', '#World_Cup', '#CoupeDuMondeFIFA', '#SolidarityWithPalestinianPeople', '#Paraguay,', '#Doha', '#FRQA50', '#QatarNationalDay', '#Qatar_Czech', '#Hola', '#Syrian', '#اليوم_العالمي_للمعلم', '#US.', '#Kazakhastan', '#إسبانيا', '#AsianCup2023', '#GenderEquality', '#16days', '#التشيك', '#اليونسكو', '#Somalia,', '#Safar,', '#UNSC', '#ليبيا', '#panamá', '#WTO', "#Jordan's", '#PotentialstoProsperity', '#الأونروا', '#humanidad', '#UNOCTDohaHub', '#FIFA_World_Cup_Qatar2022', '#MSC', '#قطر٢٠٣٠', '#وزارة_العمل', '#Malaysia,', '#MakeImpunityVisible', '#الدوحة', '#Astana', '#SeeYouInQatar', '#Welcome', '#DPoA', '#وزارة_الداخلية', '#OrangeTheWorld', '#WomenRights', '#QATAR2022', '#UNDay', '#Qatar2022!', '#مجلس_الشورى،', '#كلنا_الأدعم', '#counterterrorism,', '#QatarEnergy', '#أذربيجان', '#Economy', '#our_unity_source_of_our_strength', '#2022WorldCup', '#قنا_رياضي', '#باريس2024', '#كازاخستان', '#التجارة_والصناعة', '#FIFArabCup', '#اليوم_الوطني_القطري', '#WISH2022.#QNA', '#Qatar2022/', '#qatar2022', '#Scoring4TheGoals', '#welcometoQatar', '#Qatar-@UN_OCT', '#US', '#Afghanistan', '#بطاقة_هيّا', '#World_Cup_2022', '#الخارجيةـالقطرية', '#عالوعد', '#Russia', '#Algeria', '#Ashghal', '#المملكة_المتحدة', '#قطر', '#حياكم_في_قطر', '#IMFMeetings', '#QatarWorldCup', '#مؤتمر_ويش_2022،', '#USQatar50', '#قنا', '#للجنة', '#WISH', '#QNA:', '#HLPF', '#Kyrgyz', '#التجارة_والصناعة،', '#شيرين_أبوعاقلة', '#SICA,', '#QNA_Infographic', '#FIFAWorldCupQatar2022', '#ICAOA41', '#qatarairways', '#MOCIQATAR', '#Indonesia.', '#AsianCup2027', '#Copa', '#Qatar', '#Sierra_Leone.', '#Watan_Exercise..Security', '#Arab_Summit', '#MOFQATAR', '#أوكرانيا', '#Türkiye,', '#كأس_العالم..', '#كلنا_العنابي', '#UNRWA', '#WorldcupQatar2022', '#Football', '#NowisAll', '#مقديشو', '#VisiontoReality', '#YourSafetyIsMySafety', '#CostaRica', '#NowIsAll', '#QNV2030.', '#Poland', '#MOLQTR', '#QNA_Sport', '#حقوق_الإنسان', '#Girls.', '#WorldCup2022', '#اليوم-الدولي_للمعلمين', '#Washington', '#LDC5,', '#COP27', '#الداخلية_قطر', '#COVID19', '#Qatar_national_Day', '#Jordan,', '#المغرب', '#Goal22', '#WeAreTeamQatar', '#SDGs,', '#Kazakhstan.', '#Qatar_Algeria', '#Caracas', '#Roadto2022', '#UnitedNationsDay', '#EducationForAll', '#الكويت', '#كرواتيا،', '#Qatar_Germany', '#Indonisia', '#QNA', '#Vision2030Qatar', '#فيفا', '#ICAO41', '#Information.', '#UNGA77', '#ثريا', '#Ukraine.', '#حقوق_الانسان', '#AviationTogether', '#النيبال', '#هنغاريا،', '#AFCU17', '#Qatar_Türkiye', '#Algiers', '#WorldCup', "#Kazakhstan's", '#Qatar_2022', '#UNDay,', '#WomeninBusiness', '#حقوق_الإنسان_قطر', '#إيرلندا', '#UNHCR', '#HumanRights', '#SafirDavisFiDoha', '#LDC', '#الأردن', '#AlKass_Sports', '#مونديال_قطر_2022..', '#RuleOfLaw', '#ICAO', '#France', '#Qatar2022.', '#FIFAWorldCup', '#UNDay2022', '#Qatar.', '#United_Kingdom', '#FIFA', '#ICSS', '#Mofa_qatar', '#قطر_كازاخستان', '#العنابي_أقوى_بتشجعيكم', '#HRC51', '#Qatar,', '#European_Parliament', '#Tanzania', '#Algeria.', '#ماليزيا', '#كأس_العالم_FIFA_قطر_2022', '#SDG5', '#ŚwiętoNiepodległości']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['#QNA_Infographic', "#Qatar's", '#Qatar,', '#WorldCupQatar2022', '#اليوم_الوطني_القطري', '#Qatar', '#QNA_Sport', '#QATAR2022', '#VisiontoReality', '#MOFAQatar', '#NowisAll', '#World_Cup_Qatar_2022', '#UNDay', '#Qatar2022', '#Nowisall', '#تلفزيون_قطر', '#Qatar.', '#QNA', '#QNA_Video', '#FIFAWorldCup']</t>
+          <t>['#NowisAll', "#Qatar's", '#QNA', '#VisiontoReality', '#اليوم_الوطني_القطري', '#Qatar2022', '#FIFAWorldCup', '#WorldCupQatar2022', '#MOFAQatar', '#تلفزيون_قطر', '#QNA_Sport', '#Qatar.', '#QNA_Infographic', '#Qatar,', '#Nowisall', '#Qatar', '#World_Cup_Qatar_2022', '#QATAR2022', '#UNDay', '#QNA_Video']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['#التشيك', '#qatar', '#カタールW杯', '#Ramadan,', '#mofaqatar', '#Japan', '#ラマダン月が、幸福で喜びに満ち溢れたものになることを祈念しております。', '#اليوم_الرياضي_قطر', '#Qatar,', '#daihyo', '#WorldCupQatar2022', '#Qatar', '#holiday', '#اليوم_الوطني_القطري', '#QND2022', '#حلمنا_واقع', '#مجلس_الشورى', '#الخارجية_قطر', '#Qatar_2022', '#universities,', '#MOIQatar', '#Qatar_japan', '#وحدتنا_مصدر_قوتنا', '#طوكيو', '#كأس_العالم_قطر_2022', '#QatarNationalSportDay', '#عالوعد', '#World_Cup.', '#اليوم_الرياضي_للدولة_2023', '#شهركم_مبارك', '#ワールドカップ2022', '#قطر', '#اليابان', '#FIFAワールドカップ', '#日本', '#MOFAQatar', '#قطر2022', '#japan', '#RamadanMubarak', '#الخارجية_القطرية', '#Qatar_Japan', '#QNSD2023', '#QatarWorldCup2022', '#academic', '#رمضان', '#カタール', '#Ramadan2023', '#اليوم_الدولي_للتضامن_مع_الشعب_الفلسطيني', '#Qatar2022', '#T20WorldCup2022', '#الدوحة', '#サッカー日本代表', '#ramadan', '#FIFAWorldCup', '#FIFA', '#qatar2022', '#قطر_2022', '#Japanese', '#カタールワールドカップ', '#اليابان،', '#الخيار_لك', '#QatarNationalDay', '#LDC5']</t>
+          <t>['#رمضان', '#カタールワールドカップ', '#التشيك', '#مجلس_الشورى', '#Ramadan,', '#Japanese', '#اليوم_الرياضي_قطر', '#Ramadan2023', '#حلمنا_واقع', '#اليوم_الوطني_القطري', '#RamadanMubarak', '#カタールW杯', '#サッカー日本代表', '#Qatar2022', '#طوكيو', '#holiday', '#شهركم_مبارك', '#MOIQatar', '#وحدتنا_مصدر_قوتنا', '#Qatar_Japan', '#universities,', '#カタール', '#日本', '#FIFAWorldCup', '#qatar2022', '#اليوم_الدولي_للتضامن_مع_الشعب_الفلسطيني', '#WorldCupQatar2022', '#MOFAQatar', '#ワールドカップ2022', '#ramadan', '#QatarNationalSportDay', '#كأس_العالم_قطر_2022', '#T20WorldCup2022', '#قطر_2022', '#FIFA', '#academic', '#Japan', '#الدوحة', '#qatar', '#قطر2022', '#Qatar,', '#الخارجية_قطر', '#daihyo', '#عالوعد', '#اليوم_الرياضي_للدولة_2023', '#QatarNationalDay', '#Qatar', '#QND2022', '#World_Cup.', '#Qatar_2022', '#ラマダン月が、幸福で喜びに満ち溢れたものになることを祈念しております。', '#الخيار_لك', '#اليابان', '#FIFAワールドカップ', '#اليابان،', '#الخارجية_القطرية', '#QatarWorldCup2022', '#mofaqatar', '#LDC5', '#Qatar_japan', '#قطر', '#QNSD2023', '#japan']</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['##قطر', '#قنا_فيديو', '#كونوكو_فيليبس', '#كأس_العالم_قطر2022', '#ألمانيا', '#صربيا', '#اليوم_الوطني_القطري', '#الرياض', '#مجلس_الشورى', '#قطر٢٠٢٢_فرحة_للجميع', '#المغرب', '#مصرف_قطر_المركزي', '#قنا_رياضي', '#QATAR2022', '#كأس_العالم', '#اليوم_الوطني', '#كأس_العالم_2022', '#وحدتنا_مصدر_قوتنا', '#كأس_العالم_قطر_2022', '#عالوعد', '#حياكم_في_قطر', '#مونديال_قطر', '#قطر', '#قطر_للطاقة', '#قطر2022', '#قنا_انفوجرافيك', '#الخارجية_القطرية', '#كأس_العالم_2022_قطر', '#كأس_العالم_قطر_2022..', '#القمة_الخليجية_الصينية\u2069', '#قنا_إنفوجرافيك', '#قنا..', '#Qatar2022', '#مونديال_قطر_2022', '#قنا', '#اقتصاد', '#عملات_تذكارية_فيفا', '#كاس_العالم_2022', '#الیوم_الوطني_القطري', '#قطر_2022', '#قنا:', '#FIFAWorldCup2010', '#FIFAWorldCup', '#18ديسمبر']</t>
+          <t>['#حياكم_في_قطر', '#كاس_العالم_2022', '#مصرف_قطر_المركزي', '#18ديسمبر', '#كونوكو_فيليبس', '#مجلس_الشورى', '#قنا', '#قنا_رياضي', '#الرياض', '#اليوم_الوطني_القطري', '#صربيا', '#Qatar2022', '#وحدتنا_مصدر_قوتنا', '#FIFAWorldCup', '#كأس_العالم_قطر2022', '#قنا..', '#كأس_العالم_2022_قطر', '##قطر', '#عملات_تذكارية_فيفا', '#كأس_العالم_قطر_2022', '#قنا_إنفوجرافيك', '#قطر_2022', '#كأس_العالم_قطر_2022..', '#قطر٢٠٢٢_فرحة_للجميع', '#اليوم_الوطني', '#FIFAWorldCup2010', '#كأس_العالم_2022', '#مونديال_قطر_2022', '#قطر2022', '#قنا:', '#عالوعد', '#قطر_للطاقة', '#قنا_انفوجرافيك', '#المغرب', '#القمة_الخليجية_الصينية\u2069', '#قنا_فيديو', '#ألمانيا', '#الخارجية_القطرية', '#كأس_العالم', '#QATAR2022', '#مونديال_قطر', '#اقتصاد', '#الیوم_الوطني_القطري', '#قطر']</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['#PalestineRefugees”🎙️@UNLazzarini', '#France', '#Qatar,', '#Qatar', '#CES2023', '#QNA_Sport', '#Sustainability', '#ParlCH’s', '#Shura_Council', '#MOFAQatar', '#Swiss', '#SeeYouInQatar', '#Switzerland.', '#QatarEmbassyInSwitzerland', '#InternationalGirlChildDay', '#Qatar2022', '#FIFA’s', '#COP27', '#10DaysLeft', '#Argentina', '#QNA', '#FIFAWorldCup', '#RenzoPiano', '#Qatar_National_Day,', '#Switzerland', '#ClimateChange', '#PalestineRefugees', '#QatarNationalDay']</t>
+          <t>['#Sustainability', '#Switzerland.', '#QNA', '#FIFA’s', '#InternationalGirlChildDay', '#Qatar2022', '#PalestineRefugees', '#France', '#Switzerland', '#FIFAWorldCup', '#MOFAQatar', '#QNA_Sport', '#Argentina', '#ClimateChange', '#PalestineRefugees”🎙️@UNLazzarini', '#Qatar_National_Day,', '#COP27', '#RenzoPiano', '#10DaysLeft', '#Qatar,', '#SeeYouInQatar', '#Swiss', '#QatarNationalDay', '#Qatar', '#QatarEmbassyInSwitzerland', '#ParlCH’s', '#Shura_Council', '#CES2023']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1271,57 +1271,57 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['#قطر_بولندا', '#الرياضة_حياة', '#الخارجية_القطرية', '#Poland', '#تركي_الفيصل', '#بولندا', '#Qatar', '#MOFAQatar', '#Qatar_Poland', '#Qatar2022', '#هيا', '#ŚwiętoNiepodległości', '#قطر2022']</t>
+          <t>['#Qatar_Poland', '#Qatar', '#الرياضة_حياة', '#هيا', '#قطر_بولندا', '#Poland', '#الخارجية_القطرية', '#بولندا', '#MOFAQatar', '#قطر2022', '#Qatar2022', '#تركي_الفيصل', '#ŚwiętoNiepodległości']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>['#NowisAll', '#ThreeLions', '#QatarUK', '#Qatar_National_Day,', '#Qatar,', '#Qatar2022.', '#Qatar2022!', '#Qatar_Emirates', '#Qatar', '#UK', '#StAndrewsDay', '#Qatar2022,', '#Qatar2022', '#VisiontoReality', '#FIFAWorldCup', '#MOFAQatar']</t>
+          <t>['#ThreeLions', '#Qatar_National_Day,', '#QatarUK', '#Qatar', '#NowisAll', '#Qatar2022.', '#FIFAWorldCup', '#StAndrewsDay', '#Qatar_Emirates', '#MOFAQatar', '#VisiontoReality', '#Qatar,', '#Qatar2022!', '#UK', '#Qatar2022', '#Qatar2022,']</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>['#راية_المونديال', '#كرواتيا،', '#الصين', '#اليوم_الوطني_القطري', '#Qatar22_Fanzone', '#مجلس_الشورى', '#قطر٢٠٢٢_فرحة_للجميع', '#حلمنا_واقع', '#جريدة_الراية', '#المغرب', '#كاس_العالم_FIFA', '#وزارة_العمل', '#كأس_العالم', '#اليوم_الوطني', '#ديما_مغرب', '#كأس_العالم_2022', '#وحدتنا_مصدر_قوتنا', '#كأس_العالم_قطر_2022', '#بطاقة_هيا', '#اليوم_الوطني_للدولة', '#قطر_ألمانيا', '#18ديسمبر', '#عالوعد', '#الإمارات', '#قطر', '#FIFAWorldCupQatar2022', '#هنغاريا،', '#قطر2022', '#MOFAQatar', '#الخارجية_القطرية', '#ليبيا', '#رؤية_قطر_الوطنية_2030،', '#لبنان', '#بولندا', '#أسود_الأطلس', '#UNDay', '#الدوحة،', '#تركيا', '#اليوم_الدولي_للتضامن_مع_الشعب_الفلسطيني', '#Qatar2022', '#الأونروا', '#تونس', '#الدوحة', '#يوم_الأمم_المتحدة', '#كوستاريكا', '#إسبانيا', '#اليوم_الوطني_القطري🇶🇦', '#شاهد', '#الیوم_الوطني_القطري', '#الجزائر', '#الكويت', '#الداخلية_قطر', '#قطر٢٠٢٢', '#امريكا،', '#FIFAWorldCup', '#الباراغواي،']</t>
+          <t>['#الكويت', '#كرواتيا،', '#قطر٢٠٢٢', '#18ديسمبر', '#الدوحة،', '#رؤية_قطر_الوطنية_2030،', '#الجزائر', '#مجلس_الشورى', '#اليوم_الوطني_للدولة', '#بولندا', '#جريدة_الراية', '#حلمنا_واقع', '#الصين', '#تونس', '#اليوم_الوطني_القطري', '#ليبيا', '#Qatar2022', '#بطاقة_هيا', '#وحدتنا_مصدر_قوتنا', '#الأونروا', '#FIFAWorldCup', '#اليوم_الدولي_للتضامن_مع_الشعب_الفلسطيني', '#MOFAQatar', '#يوم_الأمم_المتحدة', '#كاس_العالم_FIFA', '#تركيا', '#كأس_العالم_قطر_2022', '#الباراغواي،', '#لبنان', '#FIFAWorldCupQatar2022', '#اليوم_الوطني_القطري🇶🇦', '#قطر٢٠٢٢_فرحة_للجميع', '#شاهد', '#هنغاريا،', '#راية_المونديال', '#امريكا،', '#أسود_الأطلس', '#اليوم_الوطني', '#كأس_العالم_2022', '#الدوحة', '#الداخلية_قطر', '#وزارة_العمل', '#ديما_مغرب', '#قطر2022', '#قطر_ألمانيا', '#عالوعد', '#المغرب', '#الإمارات', '#كوستاريكا', '#الخارجية_القطرية', '#Qatar22_Fanzone', '#كأس_العالم', '#UNDay', '#الیوم_الوطني_القطري', '#قطر', '#إسبانيا']</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>['#كات_ووك', "#Qatar's", '#التشيك', '#Mauritania.', '#catmosphere', '#NEDQAT', '#Qatar,', '#الاونروا', '#Qatar', '#اليوم_الوطني_القطري', '#QND2022', '#حلمنا_واقع', '#QATNED', '#مجلس_الشورى', '#لاجئي_فلسطين', '#جريدة_الراية', '#Doha', '#Türkiye,', '#اليوم_الوطني', '#ديما_مغرب', '#وحدتنا_مصدر_قوتنا', '#كأس_العالم_قطر_2022', '#قطر!', '#الرياض،', '#عالوعد', '#الخارجيةـالقطرية', '#Riyadh,', '#الإمارات', '#Shura_Council', '#WorldcupQatar2022', '#قطر', '#VisiontoReality', '#MoFaQatar', '#يوم_المعلم', '#MOFAQatar', '#NowisAll', '#قطر2022', '#قطر.', '#Azerbaijan', '#Qatar2022!', '#الخارجية_القطرية', '#España', '#كازاخستان', '#Hainaut.', '#رؤية_قطر_الوطنية_2030،', '#MarsalQatar', '#أسود_الأطلس', '#ديما_المغرب', '#أذربيجان', '#UNDay', '#تركيا', '#Qatar2022', '#قطر،', '#تلفزيون_قطر', '#Qatar.', '#الدوحة', '#يوم_الأمم_المتحدة', '#FIFAWorldCup', '#FIFAWorldCup2022', '#Catwalk', '#قطر_2022', '#QNV2030,', '#الداخلية_قطر', '#QatarNationalDay']</t>
+          <t>['#قطر!', '#WorldcupQatar2022', '#FIFAWorldCup2022', '#NowisAll', '#أذربيجان', '#الرياض،', "#Qatar's", '#رؤية_قطر_الوطنية_2030،', '#مجلس_الشورى', '#التشيك', '#MoFaQatar', '#Hainaut.', '#VisiontoReality', '#جريدة_الراية', '#حلمنا_واقع', '#كازاخستان', '#اليوم_الوطني_القطري', '#Qatar2022', '#QNV2030,', '#وحدتنا_مصدر_قوتنا', '#España', '#FIFAWorldCup', '#كات_ووك', '#تلفزيون_قطر', '#MOFAQatar', '#يوم_الأمم_المتحدة', '#تركيا', '#Qatar.', '#Catwalk', '#كأس_العالم_قطر_2022', '#NEDQAT', '#يوم_المعلم', '#Mauritania.', '#قطر،', '#قطر_2022', '#أسود_الأطلس', '#اليوم_الوطني', '#الدوحة', '#قطر.', '#الداخلية_قطر', '#ديما_مغرب', '#الاونروا', '#قطر2022', '#QATNED', '#Qatar,', '#ديما_المغرب', '#لاجئي_فلسطين', '#Riyadh,', '#Doha', '#عالوعد', '#الخارجيةـالقطرية', '#QatarNationalDay', '#Qatar', '#QND2022', '#MarsalQatar', '#الإمارات', '#Azerbaijan', '#الخارجية_القطرية', '#Shura_Council', '#UNDay', '#Türkiye,', '#Qatar2022!', '#catmosphere', '#قطر']</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>['#TBT', '#Qatar,', '#월드컵', '#اليوم_الوطني_القطري', '#Qatar', '#حلمنا_واقع', '#كأس_العالم_قطر_2022،', '#QATAR2022', '#카타르', '#وحدتنا_مصدر_قوتنا', '#كأس_العالم_قطر_2022', '#كأس_العالم_قطر_2022.', '#عالوعد', '#VisiontoReality', '#قطر', '#قطر2022', '#NowisAll', '#World_Cup_Qatar_2022', '#MOFAQatar', '#الخارجية_القطرية', '#WorldCup2022,', '#Qatar2022', '#كوريا', '#WorldCup2022', '#QNA', '#الیوم_الوطني_القطري', '#Qatar2022,', '#FIFAWorldCup', '#18ديسمبر']</t>
+          <t>['#NowisAll', '#18ديسمبر', '#QNA', '#VisiontoReality', '#حلمنا_واقع', '#اليوم_الوطني_القطري', '#Qatar2022', '#카타르', '#وحدتنا_مصدر_قوتنا', '#FIFAWorldCup', '#MOFAQatar', '#월드컵', '#WorldCup2022', '#كأس_العالم_قطر_2022.', '#كأس_العالم_قطر_2022،', '#كأس_العالم_قطر_2022', '#WorldCup2022,', '#Qatar2022,', '#كوريا', '#قطر2022', '#TBT', '#Qatar,', '#عالوعد', '#Qatar', '#World_Cup_Qatar_2022', '#الخارجية_القطرية', '#QATAR2022', '#الیوم_الوطني_القطري', '#قطر']</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>['#المجلس_الأعلى_للقضاء', '#قطر2022', '#كأس_العالم', '#WorldCup', '#الخارجية_القطرية', '#امريكا،', '#عُمان', '#وزارة_الداخلية', '#الإمارات', '#Qatar2022', '#الداخلية_قطر', '#المغرب', '#قطر', '#COP27', '#مرسال_قطر', '#MOFAQatar']</t>
+          <t>['#المجلس_الأعلى_للقضاء', '#المغرب', '#عُمان', '#وزارة_الداخلية', '#امريكا،', '#COP27', '#الإمارات', '#الخارجية_القطرية', '#كأس_العالم', '#الداخلية_قطر', '#قطر', '#MOFAQatar', '#قطر2022', '#مرسال_قطر', '#Qatar2022', '#WorldCup']</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>['#KOR', '#QatarConcerts', '#ENG', '#Qatar_National_Day', '#PostsofQatar', '#CAN', '#MEX', '#POL', '#Qatar!', '#Shura_Council', '#Qatar2022!', '#discurso_SuAlteza_Consejo_de_Shura', '#España', '#Qatar2022', '#HRV', '#humanidad', '#FIFAWorldCup', '#In_Qatar', '#Copa', '#اليوم_الوطني_القطري', '#WeWillRoQ', '#FIFA_2022', '#WorldAnimalDay', '#MOIQatar', '#BEL', '#LaRoja', '#HumanRightsDay', '#Qatar2022.', '#EFEsbdQatar', '#Catar2022.', '#قطر', '#QatarAirways', '#MOFAQatar', '#قطر2022', '#USA', '#MetroMan', '#POR', '#UltimateQatarExperience,', '#تلفزيون_قطر', '#EFESportBusinessDays.', '#FRA', '#SolidarityWithPalestinianPeople', '#MOFA_QATAR', '#DiscoverQatar', '#AUS', '#JPN', '#كأس_العالم_قطر_2022', '#Qatar2022?', '#QatarLive', '#World_Cup_Qatar_2022', '#ARG', '#CopaMundialFIFA', '#VisitQatar', '#Hola', '#URU', '#LaSele', '#SemanaDeLíderes', '#Qatar2022,', '#Our_Unity_Source_of_Our_Strength', '#NowIsAll', '#Qatar', '#GER', '#Doha', '#Qatar?', '#QatarEvents', '#وحدتنا_مصدر_قوتنا', '#GKAKiteWorldTour', '#FIFAWorldCupQatar2022', '#FuwairitKiteBeach', '#الخارجية_القطرية', '#InQatar', '#UNDay', '#DohaQuest', '#SEN', '#ESP', '#Catar', '#VamosEspaña', '#NED', '#BRA', '#MAR', '#أهلاً_بالعالم', '#LSA2022', '#Spain']</t>
+          <t>['#BEL', '#MOIQatar', '#InQatar', '#In_Qatar', '#MAR', '#USA', '#Qatar2022,', '#FIFAWorldCupQatar2022', '#KOR', '#CopaMundialFIFA', '#LaRoja', '#Catar', '#Copa', '#Qatar', '#الخارجية_القطرية', '#VamosEspaña', '#UltimateQatarExperience,', '#LaSele', '#HumanRightsDay', '#Qatar2022', '#Spain', '#Qatar?', '#NowIsAll', '#BRA', '#DohaQuest', '#España', '#AUS', '#Qatar_National_Day', '#VisitQatar', '#Our_Unity_Source_of_Our_Strength', '#QatarAirways', '#SolidarityWithPalestinianPeople', '#PostsofQatar', '#Catar2022.', '#Doha', '#FuwairitKiteBeach', '#SEN', '#LSA2022', '#World_Cup_Qatar_2022', '#Hola', '#FIFA_2022', '#أهلاً_بالعالم', '#MetroMan', '#humanidad', '#CAN', '#MEX', '#FRA', '#QatarEvents', '#GER', '#QatarConcerts', '#ESP', '#QatarLive', '#MOFA_QATAR', '#URU', '#NED', '#UNDay', '#Qatar2022!', '#Shura_Council', '#EFEsbdQatar', '#Qatar!', '#HRV', '#WeWillRoQ', '#ARG', '#Qatar2022?', '#اليوم_الوطني_القطري', '#وحدتنا_مصدر_قوتنا', '#EFESportBusinessDays.', '#Qatar2022.', '#FIFAWorldCup', '#GKAKiteWorldTour', '#تلفزيون_قطر', '#MOFAQatar', '#ENG', '#كأس_العالم_قطر_2022', '#discurso_SuAlteza_Consejo_de_Shura', '#POR', '#DiscoverQatar', '#قطر2022', '#JPN', '#SemanaDeLíderes', '#قطر', '#POL', '#WorldAnimalDay']</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>['#ألمانيا', '#QND2022', '#QNA_Sport', '#وزارة_العمل', '#Qatar_National_Day', '#كأس_العالم', '#Türkiye,', '#World_Cup', '#UNMediaSeminar', '#الإمارات', '#Shura_Council', '#Qatar2022!', '#discurso_SuAlteza_Consejo_de_Shura', '#España', '#أسود_الأطلس', '#تركيا', '#Qatar2022', '#قنا', '#QNA_Video', '#الجزائر', '#ميناء_الدوحة', '#FIFAWorldCup', '#QatarNationalDay', '#Germany', '#اليوم_الوطني_القطري', '#قطر_التشيك', '#MOIQatar', '#ICAOA41', '#카타르', '#HumanRightsDay', '#عالوعد', '#قطر', '#VisiontoReality', '#MOFAQatar', '#قطر2022', '#NowisAll', '#GCC', '#الأونروا', '#تلفزيون_قطر', '##كأس_العالم_2022', '#WorldCup', '#Paraguay,', '#SolidarityWithPalestinianPeople', '#MOFA_QATAR', '#الداخلية_قطر', '#Safar,', '#كرواتيا،', '#الصين', '#مجلس_الشورى', '#جريدة_الراية', '#كأس_العالم_قطر_2022', '#Croatia,', '#Venezuela', '#ShereenAbuAkleh', '#LusailBoulevard', '#مجلس_التعاون', '#هنغاريا،', '#World_Cup_Qatar_2022', '#قنا_انفوجرافيك', '#icao', '#intellectual_property', '#UNRWA', '#كازاخستان', '#Algeria', '#الدوحة،', '#مونديال_قطر_2022', '#UNRWA,', '#العرب', '#Argentina', '#يوم_الأمم_المتحدة', '#QNA', '#إسبانيا', '#AlRihla', '#الكويت', '#Parguay', '#Qatar2022,', '#التشيك', "#Qatar's", '#Our_Unity_Source_of_Our_Strength', '#Doha,', '#NowIsAll', '#بريطانيا', '#WorldCupQatar2022', '#Qatar', '#حلمنا_واقع', '#Türkiye', '#QATAR2022', '#ديما_مغرب', '#وحدتنا_مصدر_قوتنا', '#molqtr', '#QatarWorldCup2022.', '#MoFaQatar', '#China', '#الخارجية_القطرية', '#UNDay', '#قطر_2022', '#Caracas', '#Spain']</t>
+          <t>['#ShereenAbuAkleh', "#Qatar's", '#الجزائر', '#قنا', '#حلمنا_واقع', '#قطر_التشيك', '#MOIQatar', '#molqtr', '#intellectual_property', '#يوم_الأمم_المتحدة', '#مجلس_التعاون', '#Croatia,', '#Qatar2022,', '#ICAOA41', '#قطر_2022', '#أسود_الأطلس', '#Doha,', '#مونديال_قطر_2022', '#ديما_مغرب', '#ميناء_الدوحة', '#Qatar', '#ألمانيا', '#الخارجية_القطرية', '#Türkiye,', '#UNRWA', '#NowisAll', '#الدوحة،', '#MoFaQatar', '#VisiontoReality', '#HumanRightsDay', '#Qatar2022', '#NowIsAll', '#Spain', '#카타르', '#España', '#Qatar_National_Day', '#WorldCupQatar2022', '#QNA_Sport', '#Our_Unity_Source_of_Our_Strength', '#Argentina', '#العرب', '#World_Cup', '#الداخلية_قطر', '#SolidarityWithPalestinianPeople', '#Paraguay,', '#بريطانيا', '#QatarNationalDay', '#World_Cup_Qatar_2022', '#QNA_Video', '#Caracas', '#إسبانيا', '#الكويت', '#Parguay', '#كرواتيا،', '#Venezuela', '#التشيك', '#مجلس_الشورى', '#QNA', '#جريدة_الراية', '#Safar,', '#الصين', '#الأونروا', '#Germany', '#icao', '#QatarWorldCup2022.', '#هنغاريا،', '#وزارة_العمل', '#WorldCup', '#Türkiye', '#QND2022', '#UNRWA,', '#MOFA_QATAR', '#الإمارات', '#QATAR2022', '#UNDay', '#Qatar2022!', '#Shura_Council', '#كازاخستان', '#اليوم_الوطني_القطري', '#وحدتنا_مصدر_قوتنا', '#FIFAWorldCup', '#MOFAQatar', '#تلفزيون_قطر', '#تركيا', '#discurso_SuAlteza_Consejo_de_Shura', '#كأس_العالم_قطر_2022', '#AlRihla', '#China', '##كأس_العالم_2022', '#قطر2022', '#UNMediaSeminar', '#عالوعد', '#GCC', '#قنا_انفوجرافيك', '#Algeria', '#كأس_العالم', '#LusailBoulevard', '#قطر']</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>["#Qatar's", '#RemembranceDay2022', '#Our_Unity_Source_of_Our_Strength', '#اليوم_الوطني_القطري', '#Qatar', '#WorldCup2022.', '#QatarWorldCup', '#QATAR2022', '#Qatar_National_Day', '#Türkiye,', '#وحدتنا_مصدر_قوتنا', '#كأس_العالم_قطر_2022', '#Hungary,', '#molqtr', '#Shura_Council', '#US.', '#MOFAQatar', '#قطر2022', '#World_Cup_Qatar_2022', '#Azerbaijan', '#Floriade', '#Egypt', '#Algeria', '#UNDay', '#Kyrgyzstan,', '#Spain,', '#Qatar2022', '#UNRWA,', '#WorldCup2022', '#COP27', '#Qatar’s', '#QNA', '#WorldCup', '#Paraguay,', '#SolidarityWithPalestinianPeople', '#Safar,', '#Canberra', '#FIFAWorldCup']</t>
+          <t>['#QatarWorldCup', "#Qatar's", '#WorldCup2022.', '#QNA', '#Floriade', '#Safar,', '#Qatar’s', '#اليوم_الوطني_القطري', '#Qatar2022', '#وحدتنا_مصدر_قوتنا', '#molqtr', '#FIFAWorldCup', '#Canberra', '#Qatar_National_Day', '#RemembranceDay2022', '#MOFAQatar', '#WorldCup2022', '#Hungary,', '#كأس_العالم_قطر_2022', '#Our_Unity_Source_of_Our_Strength', '#COP27', '#Egypt', '#قطر2022', '#SolidarityWithPalestinianPeople', '#WorldCup', '#Paraguay,', '#Qatar', '#UNRWA,', '#Kyrgyzstan,', '#Algeria', '#World_Cup_Qatar_2022', '#Azerbaijan', '#QATAR2022', '#UNDay', '#Türkiye,', '#Shura_Council', '#US.', '#Spain,']</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>['#CR.', '#MOFAQatar']</t>
+          <t>['#MOFAQatar', '#CR.']</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>['#قنا_فيديو', '#كأس_العالم_قطر_2022', '#قطر_2022', '#Qatar', '#LusailBoulevard', '#مونديال_قطر2022', '#قنا_رياضي']</t>
+          <t>['#قطر_2022', '#Qatar', '#قنا_فيديو', '#قنا_رياضي', '#LusailBoulevard', '#كأس_العالم_قطر_2022', '#مونديال_قطر2022']</t>
         </is>
       </c>
     </row>

--- a/interim/qatar_embassies_stats.xlsx
+++ b/interim/qatar_embassies_stats.xlsx
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['de', 'ar', 'en']</t>
+          <t>['ar' 'de' 'en']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1089,112 +1089,112 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['ar', 'so', 'es', 'id', 'ca']</t>
+          <t>['ar' 'ca' 'es' 'id']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['undetected', 'af', 'ar', 'en']</t>
+          <t>['en' 'ar' 'undetected' 'af']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['undetected', 'ar', 'so']</t>
+          <t>['ar' 'undetected']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['ar', 'fr', 'so']</t>
+          <t>['fr' 'so' 'ar']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['ar', 'en', 'af', 'fr', 'it']</t>
+          <t>['en' 'ar' 'it' 'af' 'fr']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['ar', 'en', 'tr', 'fr', 'pl', 'undetected', 'es', 'tl', 'de', 'id', 'ca']</t>
+          <t>['ar' 'es' 'en' 'fr' 'de' 'id' 'undetected' 'ca' 'tr' 'pl' 'tl']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['pt', 'ar', 'en']</t>
+          <t>['en' 'ar' 'pt']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['ar', 'en', 'fr', 'pt', 'id', 'ja']</t>
+          <t>['en' 'ar' 'ja' 'id' 'fr']</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['undetected', 'ar']</t>
+          <t>['ar' 'undetected']</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['ar', 'sv', 'en', 'it', 'es']</t>
+          <t>['en' 'es' 'ar' 'it' 'sv']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>['undetected', 'ar']</t>
+          <t>['undetected' 'ar']</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['ar', 'en', 'pl', 'undetected', 'id']</t>
+          <t>['ar' 'en' 'pl' 'undetected' 'id']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>['undetected', 'en']</t>
+          <t>['en' 'undetected']</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>['ar', 'en', 'fr', 'undetected', 'es']</t>
+          <t>['ar' 'es' 'fr' 'en' 'undetected']</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>['ar', 'nl', 'en', 'tr', 'fr', 'undetected', 'es', 'id']</t>
+          <t>['ar' 'en' 'fr' 'undetected' 'nl' 'tr' 'id' 'ca' 'de' 'es']</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>['ar', 'en', 'ko', 'undetected', 'id', 'ca']</t>
+          <t>['ar' 'undetected' 'en' 'ko' 'ca' 'id']</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>['undetected', 'ar', 'en', 'so']</t>
+          <t>['ar' 'so' 'en' 'undetected']</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>['ar', 'en', 'et', 'hu', 'fa', 'undetected', 'pt', 'it', 'es', 'id', 'ca']</t>
+          <t>['ar' 'es' 'en' 'undetected' 'pt' 'hu' 'fa' 'ca' 'so' 'et' 'id']</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>['ar', 'en', 'tr', 'fr', 'so', 'undetected', 'es', 'de', 'ca']</t>
+          <t>['es' 'en' 'ar' 'undetected' 'ca' 'so' 'tr' 'de' 'fr']</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>['de', 'ar', 'en', 'undetected']</t>
+          <t>['en' 'ar' 'de' 'undetected']</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>['ar', 'es', 'en']</t>
+          <t>['ar' 'es' 'en']</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>['ar', 'en', 'so', 'undetected', 'es']</t>
+          <t>['ar' 'es' 'undetected' 'en']</t>
         </is>
       </c>
     </row>
@@ -1206,122 +1206,284 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['#المغرب_أسبانيا', '#FIFAWorldCup2022', '#اليوم_الوطني_القطري', '#Qatar2022', '#FIFAWorldCup', '#MOFAQatar', '#WorldCup2022', '#كأس_العالم_قطر_2022', '#FIFAWorldCupQatar2022', '#برلين', '#اليوم_الوطني_العُماني_52', '#كأس_العالم_2022', '#قطر2022', '#Qatar,', '#برلين،وكلنا', '#Doha', '#TagderDeutschenEinheit', '#Qatar', '#المملكة_المغربية', '#عُمان', '#الخارجية_القطرية', '#QatarWorldCup2022', '#Berlin.We', '#قطر']</t>
+          <t>[nan 'فعاليات' 'شكرا' 'احتفلت' 'مبروك' 'جانب' 'اجواء' 'الجماهير' 'Die'
+ 'تمنياتي' 'Heute' 'Today' 'حضور' 'World' 'أقامت' 'Thank' 'اقامت' 'سفارة'
+ 'برنامج' 'Frau' 'Foreign' 'وزارة']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['#قنا', '#قطر', '#غينيا', '#الخارجية_القطرية']</t>
+          <t>['رئيس' 'بيان' nan]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['#happynewyear', '#México.', '#Qatar2022.', '#FIFAWorldCup', '#qatar2022', '#Doha.', '#CentroMéxicoQatar2022', '#2023,', '#قطر2022', '#Qatar2022!', '#QatarFácil,', '#مونديال_القرن', '#Qatar2022', '#عالوعد', '#elmundialdelsiglo']</t>
+          <t>['La' '#qatar2022' 'Así' nan 'سفارة' 'Hoy' 'Viví' '▶️' '🎧']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['#EndLearningPoverty', '#IMFMeetings', '#HRV', '#OnlyForward', '#NowisAll', '#ForTheLoveOfQatar', "#Qatar's", '#NationalDay.', '#USQatar50', '#SafirDavisFiDoha', '#VisiontoReality', '#Qatar_National_Day’s', '#Qatar’s', '#اليوم_الوطني_القطري', '#Qatar2022', '#ARGFRA,', '#NowIsAll', '#IMF', '#AlAnnabi', '#AllForAlAnnabi', '#Qatar2022.', '#FIFAWorldCup', '#Qatar_National_Day', '#MAR!', '#QNV2030.', '#MOFAQatar', '#Qatar.', '#QFC', '#SafirDavisfiDoha', '#Qatar_National_Day,', '#US', '#ArabLeague', '#COP27', '#Egypt', '#Qatar,', '#WorldCup', '#Qatar', '#PassItOn', '#WorldFoodDay,', '#MOFQATAR', '#Shura_Council', '#QatarWorldCup2022', '#QatarUSA', '#UnitedNationsDay,', '#Qatar2022!', '#Qatar!']</t>
+          <t>['As' nan 'The' 'Wishing' 'During' 'Hard' 'Human' 'And' 'I' 'We' 'In'
+ "It's" 'بمناسبة' 'Congratulations' 'TODAY:' 'What' 'Hospitality'
+ '.@FIFAWorldCup' 'Last' 'Alongside' 'On' 'Football' 'An' 'Good' 'Are'
+ 'Today' 'A' 'Qatar' '#Qatar' 'WATCH:' "Qatar's" 'This' 'Go' 'Finally!'
+ 'Great' 'His' 'Unity' '⌛️5' 'Look' 'For' 'Welcome' 'Pleased' 'Soccer'
+ 'Second' 'Empowered' 'We’re' 'Deputy' '“Qatar' "HH's" 'Moved' '#QFC'
+ 'H.E.' 'HE']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['#RoadToQatar2022', '#اليونسكو', '#قنا', '#مستشفى', '#قنا_رياضي', '#التجارة_والصناعة', '#فيفا_قطر2022', '#roadtoqatar2022', '#Qatar2022', '#قطر_المغرب', '#worldcupqatar2022', '#وحدتنا_مصدر_قوتنا', '#FIFAWorldCup', '#TED_بالعربي', '#qatar2022', '#فيفا', '#كأس_العالم_قطر2022', '#كأس_آسيا_2023', '#كأس_العالم_قطر_2022', '#بن_جرير،', '#صحة', '#اعمال_خير', '#أسود_الأطلس', '#قطر2022،', '#fifaworldcup', '#ديما_مغرب', '#قطر2022', '#roadto2022', '#الإيسيسكو', '#عالوعد', '#worldcupforall', '#المغرب', '#Qatar_2022', '#قطر2022.', '#المملكة_المغربية', '#Road_To_Qatar', '#كأس_العالم', '#الخارجية_القطرية', '#العدل_قطر', '#الیوم_الوطني_القطري', '#قطر', '#Roadto2022', '#الاتحاد_الآسيوي']</t>
+          <t>[nan 'رفعتم' 'نفخر' 'ألف' 'انضمام' 'أجواء' 'حضرة' 'أداء' 'نشاط' 'من' 'قطر'
+ 'سفارة' 'اليوم' 'نهنئ' 'عندي' 'مقتطف' 'انطلقت' 'انتظرونا.' 'لم' '10'
+ '🔴بـــيــان' 'شعار' 'دولة' 'رئيس' 'الأمين' 'يُعد' 'أعلنت' 'اللجنة']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['#السودان', '#الكويت', '#CDM2022', '#ConférenceUkraine', '#فرنسا،', '#France', '#MonteCarlo', '#arabe.', '#MOFAQatar', '#Monaco', '#Qatar.', '#culture', '#art', '#digitalnomadism', '#Qatar,', '#Qatar', '#فرنسا', '#Qadran_', '#Paris.', '#snba', '#قطر', '#France,']</t>
+          <t>['"Notre' nan '"Je' '#ConférenceUkraine' "L'ambassadeur" 'Un' 'التقى'
+ 'Nouvelle' 'Entre' '🇶🇦' 'أقام']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['#FIFAWorldCup2022', '#NowisAll', "#Qatar's", '#QNA', '#WorldCup2022.', '#VisiontoReality', '#Safar,', '#Qatar’s', '#Qatar2022', '#AlAnnabi', '#Qatar2022.', '#molqtr', '#FIFAWorldCup', '#MSC', '#WorldCup.', '#WorldCupQatar2022', '#MOFAQatar', '#QNA_Sport', '#Canada!', '#WorldCup2022', '#WorldCupQatar2022,', '#Qatar2022,', '#FIFAWorldCupQatar2022', '#ICAOA41', '#Qatar_National_Day,', '#FIFAWorldCupQatar2022.', '#QatarAirways', '#COP27', '#Doha,', '#Egypt', '#قطر2022', '#Qatar,', '#WorldCup', '#Canada', '#Doha', '#QatarNationalDay', '#Qatar', '#Algeria', '#LusailBoulevard', '#UNDay', '#Türkiye,', '#Shura_Council', '#WeCAN', "#Qatar'?", '#Qatar!']</t>
+          <t>[nan 'Sheikh' 'What' 'The' "Qatar's" 'We' 'Inspired' 'In' 'Deputy'
+ 'International' 'Spokesperson' 'Committee' 'Participated' 'Pleased'
+ 'Wishing' 'Qatar,' 'Today,' 'بعد' 'الحلم' 'Great' 'HE' 'Statement' 'FIFA'
+ 'Welcome' 'Delighted' '5' 'Excited' '#QatarAirways' 'As' 'Infographic'
+ 'To' 'Son' 'Qatar' 'His' 'Highlights' 'On' "HH's" 'I' 'whom' 'Minister']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['#ShereenAbuAkleh', '#ForTheLoveOfQatar', '#sport.', '#الجزائر', '#WorldCup2022.', '#UNGA77,', '#قطر_التشيك', '#Indonesia', '#PalestineRefugees.', '#FOSS', '#MOIQatar', '#IPI', '#Messi', '#لبنان', '#قنا_إنفوجرافيك', '#Qatari', '#قطر_2022', '#MOCIQATAR,', '#WomenEmpowerment', '#قنا:', '#لندن', '#فرنسا', '#FIFA2022Qatar.', '#World_Cup_FIFA_Qatar_2022', '#كوستاريكا', '#الخارجية_القطرية', '#رؤية_قطر_الوطنية_2030.', '#GenderEquality.', '#YourEnergyTransitionPartner\u2063\u2063', '#Cambodia', '#UNGA', '#جريدة_الوطن_القطرية', '#Spain', '#España', '#Multilateralism', '#Qatar_National_Day', '#Kathmandu🇳🇵', '#WorldCupQatar2022', '#H.E.', '#هيّا', '#WorldCup,', '#Qatar🇶🇦', '#UN4All', '#اليوم_العالمي_للعصا_البيضاء', '#Kyrgyzstan,', '#Haitian', '#InternationalLaw', '#Azerbaijan', '#SDGs', '#QatarWorldCup2022', '#QNA_Video', '#Tuesday.👇🏻', '#Parguay', '#STFA!', '#العنابي', '#مجلس_الشورى', '#اليوم_العالمي_للغة_العربية', '#EducationCity,', '#Geneva', '#Qatar_Turkey', '#قطر_النمسا', '#DohaDeclaration,', '#QatarStadiums', '#Qatar2022⚽️', '#كاس_العالم_FIFA', '#الباراغواي،', '#StreetChildWorldCup', '#ClimateChange', '#بلجيكا،', '#qatar', '#Migration,', '#Lusail_Bus_Depot', '#سهيل', '#ExCom2022', '#مكتبة_قطر_الوطنية', '#Türkiye', '#MOFA_QATAR', '#ParlCH’s', '#Kazakhstan,', '#إيكاو', '#الرياض،', '#UNESCO', '#قطر_تركيا', '#UN', '#IMF', '#كأس_العالم_قطر2022', '#شيرينابوعاقلة', '#MOFAQatar', '#تلفزيون_قطر', '#تركيا', '#Qatar2022⚽️,', '#USA,', '#قطر2022', '#Libya', '#UNHQ', '#قنا_انفوجرافيك', '#RoadtoDoha.', "#Qatar's", '#Qatar’s', '#Terrorism', '#Cuban', '#Qatar_Austria', '#molqtr', '#intellectual_property', '#CICA', '#EMRTD,', '#Tajikistan’s', '#Djibouti,', '#الطيران_المدني', '#Qatar2022,', '#قطر_أمريكا', '#UNNY', '#ShireenAbuAkleh', '#Istanbul,', '#كأس_العالم_2022', '#Doha,', '#Egypt', '#London', '#Kazakhstan', '#Mogadishu', '#عُمان', '#ProtectJournalists', '#ميسي', '#مرسال_قطر', '#UNECOSOC', '#QatarUK', '#FIFAWorldCup2022', '#الدوحة،', '#LDCs', '#بولندا', '#HumanRightsDay', '#Qatar2022', '#WHO', '#قيرغيزيا،', '#اليوم_الدولي_للتضامن_مع_الشعب_الفلسطيني', '#Hungary,', '#Baku', '#فيفا_قطر٢٠٢٢', '#Our_Unity_Source_of_Our_Strength', '#CounterTerrorism', '#DPoA.', '#QatarAirways', '#WomanLeader,', '#Brasil', '#قطر_ألمانيا', '#HamadPort', '#Health', '#World_Cup.', '#قنا_فيديو', '#نديب_قطر', '#الأمم_المتحدة', '#تمرين_وطن..', '#الأمير_الصغير.', '#Venezuela', '#الصين', '#Olympic', '#ILO’s', '#AllForAlAnnabi', "#International_Teachers'_Day", '#QNA_Sports', '#Haya_card', '#United_Nations', '#EnergyEfficiency', '#DYK❓️', '#السعوديه_الارجنتين', '#قطر٢٠٢٢_فرحة_للجميع', '#حقوق_الأنسان_قطر', '#امريكا،', '#Swizerland', '#Brazil', '#qatarie', '#UNRWA,', '#Qatar2022™', '#CICASummit2022', '#الإمارات', '#LDC5.', '#LDC5', '#humanright', '#WISHQatar2022', '#Shura_Council', '#Spain,', '#اليمن', '#Sustainability', '#Haya', '#Iraqi', '#Energy', '#Qatar_Kazakhstan', '#QNV2030,', '#وحدتنا_مصدر_قوتنا', '#Int’l', '#discurso_SuAlteza_Consejo_de_Shura', '#كأس_العالم_قطر_2022', '#كأس_العالم_قطر_2022،', '#FightTerrorism.', '#aviation', '#قطر2022،', '#Total,', '#UNMediaSeminar', '#GenderParity', '#كأس_العالم', '#روسيا', '#Afghanistan,', '#Women', '#World_cup_Qatar_2023', '#FIFA’s', '#حلمنا_واقع', '#البرازيل', '#AlAnnabi', '#Burundi', '#قطر_٢٠٢٢،', '#قطر_الجزائر', '#Turkey', '#Disarmament.', '#يوم_الأمم_المتحدة', '#USA', '#Croatia,', '#Qatar_National_Day,', '#Palestine', '#Agenda2030', '#', '#AudiovisualHeritage', '#Riyadh,', '#قطر_للطاقة\u2063', '#QatarWorldCup_2022', '#Kuwait', '#Journalists,', '#UnitedNationsDay,', '#Russian', '#Algeria_Summit', '#ميانمار', '#Judo', '#زيمبابوي', '#MoFaQatar', '#Romania', '#QNV2030', '#Doha.', '#Construction', '#Argentina', '#SafirDavisfiDoha', '#World_Cup', '#CoupeDuMondeFIFA', '#SolidarityWithPalestinianPeople', '#Paraguay,', '#Doha', '#FRQA50', '#QatarNationalDay', '#Qatar_Czech', '#Hola', '#Syrian', '#اليوم_العالمي_للمعلم', '#US.', '#Kazakhastan', '#إسبانيا', '#AsianCup2023', '#GenderEquality', '#16days', '#التشيك', '#اليونسكو', '#Somalia,', '#Safar,', '#UNSC', '#ليبيا', '#panamá', '#WTO', "#Jordan's", '#PotentialstoProsperity', '#الأونروا', '#humanidad', '#UNOCTDohaHub', '#FIFA_World_Cup_Qatar2022', '#MSC', '#قطر٢٠٣٠', '#وزارة_العمل', '#Malaysia,', '#MakeImpunityVisible', '#الدوحة', '#Astana', '#SeeYouInQatar', '#Welcome', '#DPoA', '#وزارة_الداخلية', '#OrangeTheWorld', '#WomenRights', '#QATAR2022', '#UNDay', '#Qatar2022!', '#مجلس_الشورى،', '#كلنا_الأدعم', '#counterterrorism,', '#QatarEnergy', '#أذربيجان', '#Economy', '#our_unity_source_of_our_strength', '#2022WorldCup', '#قنا_رياضي', '#باريس2024', '#كازاخستان', '#التجارة_والصناعة', '#FIFArabCup', '#اليوم_الوطني_القطري', '#WISH2022.#QNA', '#Qatar2022/', '#qatar2022', '#Scoring4TheGoals', '#welcometoQatar', '#Qatar-@UN_OCT', '#US', '#Afghanistan', '#بطاقة_هيّا', '#World_Cup_2022', '#الخارجيةـالقطرية', '#عالوعد', '#Russia', '#Algeria', '#Ashghal', '#المملكة_المتحدة', '#قطر', '#حياكم_في_قطر', '#IMFMeetings', '#QatarWorldCup', '#مؤتمر_ويش_2022،', '#USQatar50', '#قنا', '#للجنة', '#WISH', '#QNA:', '#HLPF', '#Kyrgyz', '#التجارة_والصناعة،', '#شيرين_أبوعاقلة', '#SICA,', '#QNA_Infographic', '#FIFAWorldCupQatar2022', '#ICAOA41', '#qatarairways', '#MOCIQATAR', '#Indonesia.', '#AsianCup2027', '#Copa', '#Qatar', '#Sierra_Leone.', '#Watan_Exercise..Security', '#Arab_Summit', '#MOFQATAR', '#أوكرانيا', '#Türkiye,', '#كأس_العالم..', '#كلنا_العنابي', '#UNRWA', '#WorldcupQatar2022', '#Football', '#NowisAll', '#مقديشو', '#VisiontoReality', '#YourSafetyIsMySafety', '#CostaRica', '#NowIsAll', '#QNV2030.', '#Poland', '#MOLQTR', '#QNA_Sport', '#حقوق_الإنسان', '#Girls.', '#WorldCup2022', '#اليوم-الدولي_للمعلمين', '#Washington', '#LDC5,', '#COP27', '#الداخلية_قطر', '#COVID19', '#Qatar_national_Day', '#Jordan,', '#المغرب', '#Goal22', '#WeAreTeamQatar', '#SDGs,', '#Kazakhstan.', '#Qatar_Algeria', '#Caracas', '#Roadto2022', '#UnitedNationsDay', '#EducationForAll', '#الكويت', '#كرواتيا،', '#Qatar_Germany', '#Indonisia', '#QNA', '#Vision2030Qatar', '#فيفا', '#ICAO41', '#Information.', '#UNGA77', '#ثريا', '#Ukraine.', '#حقوق_الانسان', '#AviationTogether', '#النيبال', '#هنغاريا،', '#AFCU17', '#Qatar_Türkiye', '#Algiers', '#WorldCup', "#Kazakhstan's", '#Qatar_2022', '#UNDay,', '#WomeninBusiness', '#حقوق_الإنسان_قطر', '#إيرلندا', '#UNHCR', '#HumanRights', '#SafirDavisFiDoha', '#LDC', '#الأردن', '#AlKass_Sports', '#مونديال_قطر_2022..', '#RuleOfLaw', '#ICAO', '#France', '#Qatar2022.', '#FIFAWorldCup', '#UNDay2022', '#Qatar.', '#United_Kingdom', '#FIFA', '#ICSS', '#Mofa_qatar', '#قطر_كازاخستان', '#العنابي_أقوى_بتشجعيكم', '#HRC51', '#Qatar,', '#European_Parliament', '#Tanzania', '#Algeria.', '#ماليزيا', '#كأس_العالم_FIFA_قطر_2022', '#SDG5', '#ŚwiętoNiepodległości']</t>
+          <t>[nan 'Qatar' 'Statement' 'بيان' 'رأيتُ' 'Spokesperson' 'المتحدث' 'أقام'
+ 'Deputy' 'Minister' 'مساعد' 'HE' 'لجنة' 'Assistant' 'The' 'حالة'
+ 'Secretary-General' 'Disbursing' 'انتخاب' 'الأمين' 'وزير' 'رسالة' 'وثمن'
+ 'Gowning' 'بيان|' 'أتقدم' 'دولة' 'أعلنت' 'سموّ' 'شكرن' 'البيان' 'سمو'
+ 'سفارة' 'الأسطورة' '@majedalansari' 'Iranian' 'HH' 'En' 'كالعهد' 'حضور'
+ 'يأتي' '#وحدتنا_مصدر_قوتنا' 'نائب' '📽️نائب' 'سررت' 'من' 'We' 'Pleased'
+ '#Our_Unity_Source_of_Our_Strength' 'تنتهي' 'بمناسبة' 'This'
+ '#اليوم_الوطني_القطري' 'Their' 'قطر' 'Félicitations' 'Asistente'
+ 'Viceprimer' 'I' 'التقيت' 'Doha' 'Lusail' 'سعدت' '#GenderEquality'
+ 'Delighted' 'اختيار' '🎥|' 'In' 'Día' 'Discurso' 'Al-Kuwari:' '#MOFAQatar'
+ 'Permanent' "Qatar's" 'President' '📽️Deputy' 'شارك' 'في' 'كما' 'THE'
+ 'Qatar,' 'يحتضن' 'Through' '#الأمم_المتحدة' 'International' 'Remarks'
+ 'PCOC' 'الوفد' 'تأتي' 'اليوم' 'المدير' 'الكواري:' 'Great' 'UN' 'الأمم'
+ 'Estado' '(لئن' 'أهنئ' 'Portavoz' 'Committee' '“The' 'Conditions' 'El'
+ 'Briefed' 'Esto' '#اليوم_الدولي_للتضامن_مع_الشعب_الفلسطيني' 'تؤكد' 'دعمت'
+ 'تواصل' 'Over' '#QNA_Video' 'Brazilian' '🎥' 'سعادة' 'Participated' 'Met'
+ '#الخارجية_القطرية' 'ضمن' 'Secretario' 'As' 'U.S.' 'افتتحت' 'Today,'
+ 'نبارك' 'Live' 'يبدأ' 'بث' 'البث' 'Regularity' 'يعكس' 'Fifth' 'Zambia'
+ 'Looking' 'الحوار' 'أتطلع' '"وجعلناكم' 'بعد' 'Foreign' 'اللجنة' 'المبعوث'
+ 'دعم' 'Gran' 'نجدد' 'أطيب' '✔️' '#HamadPort' 'Embajada' 'Embassy' 'Desde'
+ 'بقي' '#QNA_Infographic' 'الإعلان' '#Doha' '#WorldCupQatar2022' 'دشنا'
+ '@MBA_AlThani_' '🆕Bring' '#قنا_فيديو' '#قنا_إنفوجرافيك'
+ '#مونديال_قطر_2022..' 'Be' 'أحر' 'بينما' 'اللحظة' 'Our' 'Acaba' 'بوصولك'
+ 'Z' 'الممثل' 'Special' 'خلال' '🔟' 'Always' 'المجموعة' 'قبل' 'مشاركة'
+ '#قطر' 'After' 'These' 'وحدة' 'تخرج' 'Second' 'Glad' 'Congratulations'
+ 'Merchandise' '#Football' 'كرة' 'Japanese' 'Thank' 'Infographic' 'Major'
+ 'Very' '📸|' 'Read' '2/' 'Empowered' 'Did' '#FIFA' 'Dans' 'إنفوجراف' 'To'
+ 'لقراءة' 'Son' 'Qatar’s' 'Lors' 'On' 'Pleasure' "Aujourd'hui," 'During'
+ '.@ILOQatar' 'Los' 'Arab' 'القادة' 'Transforming' 'According' 'H.E' 'ILO'
+ 'منظمة' 'كلمة' 'نهنئ' 'تستضيف' 'Parte' 'صورة' 'Part' 'جانب' 'FIFA' 'رئيس'
+ 'Avec' 'Ministerio' 'وزارة' 'موجز' 'Today' 'Inauguration' 'Inauguración'
+ 'افتتاح' 'His' 'التقى' '#MOCIQATAR,' 'نظمت' '#MOCIQATAR'
+ '@QatarMission_Ge' '⏰' '❗' 'H.E.' '#Qatar' 'Mogadishu' 'Vice-President'
+ 'مدير' 'جامعة' 'سفارات' 'Speaker' 'وقعت' 'Infograph' 'Somali' 'Ministry'
+ 'Un' 'State' 'البدء' 'انعقاد' 'ممثل' '#UNESCO' 'MOPH' 'على' 'أكد' 'ملك'
+ "HH's" '#DYK❓️' 'تناول' 'استضافة🇶🇦' 'يؤكد' 'مسؤولة' 'توقيع' 'Minostro'
+ 'Moved' 'نشارك' 'Une' 'دشنت' 'الخارجية' 'تقديرا' 'بطلنا' 'Happy' 'حضرة'
+ 'Chairman' 'MOT' '⏳1' 'Comandante' '⏳' 'أقل' 'Less' 'Tanzanian' 'Indian'
+ 'للمرة' 'رئيسة' 'Tajikistan' '#قنا_انفوجرافيك' "Iran's" '▶️' '◀️'
+ "#Qatar's" '🏆' 'Le' '✨' '✅' 'تؤمن' 'Sudanese' 'يسعدُ' '#Qatar🇶🇦'
+ 'Commercial' 'La' 'Secretary' 'الرئيس' 'الشيخة' 'Association' 'NHRC'
+ 'Shura' 'إنفوجراف|' '#مجلس_الشورى' 'سفير' 'Ministerial' 'حضرت' 'African'
+ 'Education' 'استلمت' 'GANHRI' 'Turkish' 'مراسم' '#H.E.' 'سعيد' 'Russian'
+ '#FIFAWorldCup' 'التصريحات' 'Felicito' 'جولة' 'Lebanese' 'Gulf' 'At' 'My'
+ 'QNL' 'Vicepresidente' 'نائبة' 'Vice' '#Shura_Council'
+ '#مكتبة_قطر_الوطنية' 'Indonesian' 'برنامج' 'التقت' 'Sharing' 'Las'
+ 'Executive' 'Friendship' 'السيد' 'Join' 'National' 'وكيل' 'يشارك' '¡No'
+ 'Ministro' 'القوات' 'تعرّفوا' 'It' 'All' 'Add' 'فــخــر' 'OUR' 'Hamad'
+ 'مشاورات' 'Les' '#اليوم-الدولي_للمعلمين' "#International_Teachers'_Day"
+ 'وأغتنم' 'Such' 'paraguay' 'فوز' '#Ashghal' 'لقطات' 'Museum' 'Paraguay'
+ 'الباراغواي' 'Prime']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['#NowisAll', "#Qatar's", '#QNA', '#VisiontoReality', '#اليوم_الوطني_القطري', '#Qatar2022', '#FIFAWorldCup', '#WorldCupQatar2022', '#MOFAQatar', '#تلفزيون_قطر', '#QNA_Sport', '#Qatar.', '#QNA_Infographic', '#Qatar,', '#Nowisall', '#Qatar', '#World_Cup_Qatar_2022', '#QATAR2022', '#UNDay', '#QNA_Video']</t>
+          <t>['1.4' 'سفارة' 'This' 'HH' 'HE' 'كلمة' 'The' 'We' nan 'Inaugurado' 'SE'
+ 'Inaugurated' '#WorldCupQatar2022' 'Labor' '#QNA_Video'
+ '#QNA_Infographic' 'Group' 'Discover' 'To' 'Qatar']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['#رمضان', '#カタールワールドカップ', '#التشيك', '#مجلس_الشورى', '#Ramadan,', '#Japanese', '#اليوم_الرياضي_قطر', '#Ramadan2023', '#حلمنا_واقع', '#اليوم_الوطني_القطري', '#RamadanMubarak', '#カタールW杯', '#サッカー日本代表', '#Qatar2022', '#طوكيو', '#holiday', '#شهركم_مبارك', '#MOIQatar', '#وحدتنا_مصدر_قوتنا', '#Qatar_Japan', '#universities,', '#カタール', '#日本', '#FIFAWorldCup', '#qatar2022', '#اليوم_الدولي_للتضامن_مع_الشعب_الفلسطيني', '#WorldCupQatar2022', '#MOFAQatar', '#ワールドカップ2022', '#ramadan', '#QatarNationalSportDay', '#كأس_العالم_قطر_2022', '#T20WorldCup2022', '#قطر_2022', '#FIFA', '#academic', '#Japan', '#الدوحة', '#qatar', '#قطر2022', '#Qatar,', '#الخارجية_قطر', '#daihyo', '#عالوعد', '#اليوم_الرياضي_للدولة_2023', '#QatarNationalDay', '#Qatar', '#QND2022', '#World_Cup.', '#Qatar_2022', '#ラマダン月が、幸福で喜びに満ち溢れたものになることを祈念しております。', '#الخيار_لك', '#اليابان', '#FIFAワールドカップ', '#اليابان،', '#الخارجية_القطرية', '#QatarWorldCup2022', '#mofaqatar', '#LDC5', '#Qatar_japan', '#قطر', '#QNSD2023', '#japan']</t>
+          <t>['The' 'تهنئكم' nan 'أبرز'
+ '駐日カタール国大使館は、天皇陛下の63歳のお誕生日に際し、陛下並びに日本国民の皆様に心よりお祝い申し上げます。陛下の御健康と日本国民の皆様の益々のご繁栄を祈念申し上げます。'
+ '***تنــويه' 'سفارة' 'إنفوجراف|' '#قطر' 'قطر' 'الدكتور' 'Qatar,'
+ 'Exchange' '本日2月2日木曜日、カタール国と日本の間で、一般パスポート保持者に対する査証の相互免除に関する覚書が交わされました。'
+ 'تبادل' 'Japanese' '🎥|' 'رئيس' 'Met' 'نائب' 'سررت' 'Statement' 'بيان'
+ 'بيان|' 'موجز' 'statement:' 'سفارات' 'اليوم' 'H.E.'
+ '12月14日(水曜日)、ハッサン・ビン・モハメド・ラフィ・アルエマーディ駐日カタール大使が帝国ホテルにてカタール建国記念式典を開催しました。日本政府の高官や各国の大使、ビジネスマン、カタール人留学生等、多くの人が参加しました。'
+ 'أقـام' 'His' 'استقبل'
+ '12月15日（木曜日）、ハッサン・ビン・モハメド・ラフィ・アルエマーディ駐日カタール国大使は、経済産業省にて西村康稔経済産業大臣を表敬しました。会談では、両国間の関係の強化及び発展について話し合われ、双方の共通の関心事項についても述べられました。'
+ 'سعادة' 'カタール国建国記念レセプションが行われました🎊' '武井外務副大臣のカタール国ナショナルデー・レセプション出席' 'In'
+ 'International' 'FIFAワールド杯' 'Her'
+ '高円宮妃殿下はFIFAワールドカップ観戦のため訪問していたカタールで、日本代表が16強入りしたスペイン戦を応援されました。' 'الأميرة'
+ 'دعمت' 'HE' 'مرحباً' 'Part' 'Fifth'
+ '山梨県早川町の辻一幸町長が日本最古の宿「慶雲館」にて夕食会を開催し、ハッサン・ビン・モハメド・ラフィー・アルエマーディ駐日カタール国大使や湾岸諸国の大使らを招待しました。'
+ 'حضر'
+ '長崎幸太郎山梨県知事がハッサン・ビン・モハメド・ラフィー・アルエマーディ駐日カタール国大使を含む湾岸諸国の大使らを山梨県へ招待し、米倉山太陽光発電所PR施設「ゆめソーラー館やまなし」を訪問しました。'
+ 'ハッサン・ビン・モハメド・ラフィー・アルエマーディ駐日カタール国大使が長崎幸太郎'
+ 'ハッサン・ビン・モハメド・ラフィー・アルエマーディ駐日カタール国大使が' 'لقاء' '新しいバージョンをお届けします' 'Mr.'
+ '本日11月11日、ハッサン・ビン・モハメド・ラフィー・アルエマーディ駐日カタール国大使が議員会館において、木原稔衆議院議員を表敬しました。両国関係の強化および発展について話し合われ、双方の共通の関心事についても述べられました。'
+ '未来をつなぐ湾岸都市'
+ '11月9日夜、ハッサン・ビン・モハメド・フィ・アルエマーディ駐日カタール国大使は、ワールドカップに出場する日本代表選手らを成田空港で見送りました。'
+ '想像を超える' '@MBA_AlThani_' '2022年11月4日、' 'HRH' 'سمو' '#FIFA' 'Dans' 'في'
+ 'إستقبل' 'شارك' 'カタール国は豪政府によるエルサレム首都認定の撤回を歓迎' 'دولة' 'التصريحات' 'مراسم']</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['#حياكم_في_قطر', '#كاس_العالم_2022', '#مصرف_قطر_المركزي', '#18ديسمبر', '#كونوكو_فيليبس', '#مجلس_الشورى', '#قنا', '#قنا_رياضي', '#الرياض', '#اليوم_الوطني_القطري', '#صربيا', '#Qatar2022', '#وحدتنا_مصدر_قوتنا', '#FIFAWorldCup', '#كأس_العالم_قطر2022', '#قنا..', '#كأس_العالم_2022_قطر', '##قطر', '#عملات_تذكارية_فيفا', '#كأس_العالم_قطر_2022', '#قنا_إنفوجرافيك', '#قطر_2022', '#كأس_العالم_قطر_2022..', '#قطر٢٠٢٢_فرحة_للجميع', '#اليوم_الوطني', '#FIFAWorldCup2010', '#كأس_العالم_2022', '#مونديال_قطر_2022', '#قطر2022', '#قنا:', '#عالوعد', '#قطر_للطاقة', '#قنا_انفوجرافيك', '#المغرب', '#القمة_الخليجية_الصينية\u2069', '#قنا_فيديو', '#ألمانيا', '#الخارجية_القطرية', '#كأس_العالم', '#QATAR2022', '#مونديال_قطر', '#اقتصاد', '#الیوم_الوطني_القطري', '#قطر']</t>
+          <t>['سفارات' nan 'بعدسة' 'سمو' '#وحدتنا_مصدر_قوتنا' 'جياني' 'رئيس'
+ 'انفانتينو:' 'إشادات' '#قنا_انفوجرافيك' 'اليوم' 'البيان' 'مجلة'
+ '#قطر_للطاقة' 'سيتم' 'وزير' 'دولة' '🎥|' '#كأس_العالم_قطر_2022' 'ليلة'
+ 'دعم' '#قنا_فيديو' 'نجدد' 'لطالما' '#كأس_العالم_2022' '#قنا_إنفوجرافيك'
+ 'جمعية' 'تم' 'إنفوجراف' '🎥' 'المتحدث' 'في' 'عدد']</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['#Sustainability', '#Switzerland.', '#QNA', '#FIFA’s', '#InternationalGirlChildDay', '#Qatar2022', '#PalestineRefugees', '#France', '#Switzerland', '#FIFAWorldCup', '#MOFAQatar', '#QNA_Sport', '#Argentina', '#ClimateChange', '#PalestineRefugees”🎙️@UNLazzarini', '#Qatar_National_Day,', '#COP27', '#RenzoPiano', '#10DaysLeft', '#Qatar,', '#SeeYouInQatar', '#Swiss', '#QatarNationalDay', '#Qatar', '#QatarEmbassyInSwitzerland', '#ParlCH’s', '#Shura_Council', '#CES2023']</t>
+          <t>['Qatar' '“Once' 'Statement' nan 'Qatar’s' 'What' 'ARGENTINA' 'We' 'The'
+ 'Welcome' '📽️Deputy' 'This' '#Qatar' 'Congratulations' 'History' '𝐓𝐡𝐞'
+ 'Club' 'Almost' 'A' 'Did' 'In' 'QFFD']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[nan]</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['#Qatar_Poland', '#Qatar', '#الرياضة_حياة', '#هيا', '#قطر_بولندا', '#Poland', '#الخارجية_القطرية', '#بولندا', '#MOFAQatar', '#قطر2022', '#Qatar2022', '#تركي_الفيصل', '#ŚwiętoNiepodległości']</t>
+          <t>[nan 'Warm' 'Spokesperson' 'المتحدث' 'بعد' 'يتعين' 'تحت' 'نهنئ' 'I' 'Z'
+ 'أهنئ' 'We' '@MBA_AlThani_' 'سعادة' 'HE' 'Read' 'إنفوجراف' 'Infographic'
+ 'حضر' 'Qatar,' 'مشاورات']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>['#ThreeLions', '#Qatar_National_Day,', '#QatarUK', '#Qatar', '#NowisAll', '#Qatar2022.', '#FIFAWorldCup', '#StAndrewsDay', '#Qatar_Emirates', '#MOFAQatar', '#VisiontoReality', '#Qatar,', '#Qatar2022!', '#UK', '#Qatar2022', '#Qatar2022,']</t>
+          <t>[nan 'ARGENTINA' 'We' '𝐇𝐈𝐒𝐓𝐎𝐑𝐘' 'The' 'Happy' 'History' 'Congratulations'
+ 'Well' 'Great' 'As' 'In' 'Welcome' 'HE' '#Qatar' 'Deputy' 'H.E.']</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>['#الكويت', '#كرواتيا،', '#قطر٢٠٢٢', '#18ديسمبر', '#الدوحة،', '#رؤية_قطر_الوطنية_2030،', '#الجزائر', '#مجلس_الشورى', '#اليوم_الوطني_للدولة', '#بولندا', '#جريدة_الراية', '#حلمنا_واقع', '#الصين', '#تونس', '#اليوم_الوطني_القطري', '#ليبيا', '#Qatar2022', '#بطاقة_هيا', '#وحدتنا_مصدر_قوتنا', '#الأونروا', '#FIFAWorldCup', '#اليوم_الدولي_للتضامن_مع_الشعب_الفلسطيني', '#MOFAQatar', '#يوم_الأمم_المتحدة', '#كاس_العالم_FIFA', '#تركيا', '#كأس_العالم_قطر_2022', '#الباراغواي،', '#لبنان', '#FIFAWorldCupQatar2022', '#اليوم_الوطني_القطري🇶🇦', '#قطر٢٠٢٢_فرحة_للجميع', '#شاهد', '#هنغاريا،', '#راية_المونديال', '#امريكا،', '#أسود_الأطلس', '#اليوم_الوطني', '#كأس_العالم_2022', '#الدوحة', '#الداخلية_قطر', '#وزارة_العمل', '#ديما_مغرب', '#قطر2022', '#قطر_ألمانيا', '#عالوعد', '#المغرب', '#الإمارات', '#كوستاريكا', '#الخارجية_القطرية', '#Qatar22_Fanzone', '#كأس_العالم', '#UNDay', '#الیوم_الوطني_القطري', '#قطر', '#إسبانيا']</t>
+          <t>['المتحدث' 'بيان' nan 'تحولت' 'بيان|' 'دولة' 'أتقدم' 'نائب' 'وزير' '#شاهد'
+ 'الأمين' 'انتخاب' 'سفارات' 'بأجواء' 'بمناسبة' 'تنتهي' 'أهنئ' 'حضور'
+ 'جانب' 'سررت' 'التقيت' '📽️نائب' 'مساعد' 'سعدت' 'اختيار' '🎥|' 'الكواري:'
+ 'المدير' 'بمشاركة' 'اليوم' 'تأتي' 'نفخر' 'الوفد' '#الخارجية_القطرية'
+ 'لجنة' 'اشتراطات' 'فوز' 'كلمة' 'تواصل' 'دعمت' '🎥' 'تفاعل' 'سعادة'
+ 'احتفالات' 'قطر' 'افتتحت' 'بث' 'البث' 'يعكس' 'مشاركة' 'الحوار' 'سفارة'
+ 'أتطلع' 'بالتعاون' 'أقامت' 'زامبيا' 'Parte' 'Dans' 'Part' 'انطلق' 'حضرة'
+ 'بعد' '#عالوعد' 'المبعوث' 'مرحباً' 'دعم' 'أطيب' 'معلومات' 'سمو' 'كما'
+ 'إعلان' 'أضفنا' 'الجمهور' 'قائمة' 'لحظة' 'يشكل' 'دشنا' 'عندما' 'كرة'
+ '@MBA_AlThani_' 'القادة' 'إن' 'منظمة' 'تستضيف' 'موجز' 'اللجنة' 'افتتاح'
+ 'تعرّفوا' 'مدير' 'باعتبارها' 'لا' 'إنفوجراف' 'وزارة' 'أكد' 'يؤكد' 'في'
+ 'نشارك' 'تناول' 'من' 'دشنت' 'الخارجية' 'قِصةُ' 'قصة' 'أبرز'
+ '#وحدتنا_مصدر_قوتنا' 'رئيس' 'تؤمن' 'حضرت' 'سفير' 'جولة' 'شهد']</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>['#قطر!', '#WorldcupQatar2022', '#FIFAWorldCup2022', '#NowisAll', '#أذربيجان', '#الرياض،', "#Qatar's", '#رؤية_قطر_الوطنية_2030،', '#مجلس_الشورى', '#التشيك', '#MoFaQatar', '#Hainaut.', '#VisiontoReality', '#جريدة_الراية', '#حلمنا_واقع', '#كازاخستان', '#اليوم_الوطني_القطري', '#Qatar2022', '#QNV2030,', '#وحدتنا_مصدر_قوتنا', '#España', '#FIFAWorldCup', '#كات_ووك', '#تلفزيون_قطر', '#MOFAQatar', '#يوم_الأمم_المتحدة', '#تركيا', '#Qatar.', '#Catwalk', '#كأس_العالم_قطر_2022', '#NEDQAT', '#يوم_المعلم', '#Mauritania.', '#قطر،', '#قطر_2022', '#أسود_الأطلس', '#اليوم_الوطني', '#الدوحة', '#قطر.', '#الداخلية_قطر', '#ديما_مغرب', '#الاونروا', '#قطر2022', '#QATNED', '#Qatar,', '#ديما_المغرب', '#لاجئي_فلسطين', '#Riyadh,', '#Doha', '#عالوعد', '#الخارجيةـالقطرية', '#QatarNationalDay', '#Qatar', '#QND2022', '#MarsalQatar', '#الإمارات', '#Azerbaijan', '#الخارجية_القطرية', '#Shura_Council', '#UNDay', '#Türkiye,', '#Qatar2022!', '#catmosphere', '#قطر']</t>
+          <t>[nan 'تمكنت' 'Through' 'The' 'تنتهي' 'أهنئ' 'Qatar' 'أتقدم' 'نتقدم'
+ 'سفارة' 'Al' 'نائب' 'Deputy' '📽️Deputy' 'Le' 'من' 'Inspired' 'رفعتم'
+ 'كفو' 'المدير' 'دولة' '🎥|' 'Pleased' 'سعدت' 'نفخر' 'سمو' 'بذلت' 'Met'
+ 'استوحي' 'As' 'سعادة' 'Participated' 'المتحدث' 'حضرة' 'بعد' '"وجعلناكم'
+ 'أتطلع' 'Looking' 'جانب' 'مشاركة' '📽️نائب' 'باقٍ' 'أضفنا' 'بوصولك' 'يشكل'
+ 'Inaugurated' 'أحر' 'I' 'بيان' 'Statement' 'شارك' 'دشنا' 'HE'
+ '@MBA_AlThani_' 'ministre' 'افتتاح' 'It' 'Son' '#MOFAQatar'
+ '#الخارجية_القطرية' 'لقراءة' 'To' '@MofaQatar_EN' 'Dans' 'Infographic'
+ 'إنفوجراف' 'سررت' '🎥' 'Minister' 'وزير' 'We' 'باعتبارها' 'HH' 'في' 'قطر'
+ 'His' 'In' 'نشارك' 'Today,' 'دشنت' 'HE.' 'شكراً' 'Felicito' 'حضرت' 'H.E'
+ 'إنفوجراف|' 'مراسم' 'التصريحات' 'لقطات' 'Pleasant']</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>['#NowisAll', '#18ديسمبر', '#QNA', '#VisiontoReality', '#حلمنا_واقع', '#اليوم_الوطني_القطري', '#Qatar2022', '#카타르', '#وحدتنا_مصدر_قوتنا', '#FIFAWorldCup', '#MOFAQatar', '#월드컵', '#WorldCup2022', '#كأس_العالم_قطر_2022.', '#كأس_العالم_قطر_2022،', '#كأس_العالم_قطر_2022', '#WorldCup2022,', '#Qatar2022,', '#كوريا', '#قطر2022', '#TBT', '#Qatar,', '#عالوعد', '#Qatar', '#World_Cup_Qatar_2022', '#الخارجية_القطرية', '#QATAR2022', '#الیوم_الوطني_القطري', '#قطر']</t>
+          <t>[nan 'سفارة' 'احتفال' 'Al' 'During' 'خيمتنا' 'نائب' 'قامت' '주한카타르대사관은'
+ 'Spokesperson' 'As' 'Minister' 'Deputy' 'Qatar' 'دولة' 'بعد' "La'eeb"
+ '#World_Cup_Qatar_2022' '#Qatar2022,' 'دعم' '8️⃣' 'That' 'دشنا'
+ '@MBA_AlThani_' 'Ahead' 'Marvel' '#وحدتنا_مصدر_قوتنا']</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>['#المجلس_الأعلى_للقضاء', '#المغرب', '#عُمان', '#وزارة_الداخلية', '#امريكا،', '#COP27', '#الإمارات', '#الخارجية_القطرية', '#كأس_العالم', '#الداخلية_قطر', '#قطر', '#MOFAQatar', '#قطر2022', '#مرسال_قطر', '#Qatar2022', '#WorldCup']</t>
+          <t>[nan '🇦🇷Amb' 'وفد' 'أهنئ' 'انتخاب' 'Qatar' 'سررت' 'بعد' 'أطيب' 'أتقدم'
+ 'سمو' 'سعدت' 'Might' 'لاهاي،']</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>['#BEL', '#MOIQatar', '#InQatar', '#In_Qatar', '#MAR', '#USA', '#Qatar2022,', '#FIFAWorldCupQatar2022', '#KOR', '#CopaMundialFIFA', '#LaRoja', '#Catar', '#Copa', '#Qatar', '#الخارجية_القطرية', '#VamosEspaña', '#UltimateQatarExperience,', '#LaSele', '#HumanRightsDay', '#Qatar2022', '#Spain', '#Qatar?', '#NowIsAll', '#BRA', '#DohaQuest', '#España', '#AUS', '#Qatar_National_Day', '#VisitQatar', '#Our_Unity_Source_of_Our_Strength', '#QatarAirways', '#SolidarityWithPalestinianPeople', '#PostsofQatar', '#Catar2022.', '#Doha', '#FuwairitKiteBeach', '#SEN', '#LSA2022', '#World_Cup_Qatar_2022', '#Hola', '#FIFA_2022', '#أهلاً_بالعالم', '#MetroMan', '#humanidad', '#CAN', '#MEX', '#FRA', '#QatarEvents', '#GER', '#QatarConcerts', '#ESP', '#QatarLive', '#MOFA_QATAR', '#URU', '#NED', '#UNDay', '#Qatar2022!', '#Shura_Council', '#EFEsbdQatar', '#Qatar!', '#HRV', '#WeWillRoQ', '#ARG', '#Qatar2022?', '#اليوم_الوطني_القطري', '#وحدتنا_مصدر_قوتنا', '#EFESportBusinessDays.', '#Qatar2022.', '#FIFAWorldCup', '#GKAKiteWorldTour', '#تلفزيون_قطر', '#MOFAQatar', '#ENG', '#كأس_العالم_قطر_2022', '#discurso_SuAlteza_Consejo_de_Shura', '#POR', '#DiscoverQatar', '#قطر2022', '#JPN', '#SemanaDeLíderes', '#قطر', '#POL', '#WorldAnimalDay']</t>
+          <t>['سفارة' nan '#Our_Unity_Source_of_Our_Strength' 'Día' 'اقامت' 'La'
+ '#Qatar2022' 'El' 'Experience' 'Metro?' 'Viceprimer' 'En' 'Al-Kuwari:'
+ 'Discurso' 'Asistente' 'Estado' 'Travelling' 'Looking' 'ℹ️' 'UNA' '¡Así'
+ '🇫🇷' 'Lo' 'Buenas' 'USG' 'SE' 'عبد' 'Visit' 'Portavoz' 'discurso' 'Esto'
+ '¡Solo' 'Clasificados' '¡Estos' '¡Inglaterra' 'Cuando' '"Creo' 'Explore'
+ 'From' 'Energy' 'Una' '¡Súmate' '📍' 'Meeetro?' '¡Esto' '📸' '¡Se'
+ '¡Momento' '¡Empate' '¡Victoria' '⚽️' '1,' 'Así' '¡Oficialmente' '0'
+ "It's" 'Gran' 'Feel' 'Con' 'Qatar' 'Su' 'Transporte' 'Competition' '📲'
+ '5' '💾' 'كلمة' 'Posts' 'Visitors' 'Sin' 'Los' 'If' 'Acaba' 'Touchdown'
+ 'Ministerio' 'Un' 'Si' '🏟' 'Falta' '¿Cómo' 'Inauguración' 'Here' '✨' '6'
+ '🇶🇦' 'Have' '❗' 'Msheireb,' '⏰' 'Did' '¡FALTAN' '¡5️⃣' '¡FALTA' '¿Vas'
+ '¿Qué' '32' '¿Todavía' '¡Fiesta' 'Solo' '¡El' '🏆' 'اكتشف' "Surf's"
+ '¿Quién' 'Dos' 'Nueva' 'Take' 'Only' '👇' '🚨' 'Felicito' 'When' '🔸'
+ '@MIAQatar' "Qatar's" 'Happy' 'Save' '¡No']</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>['#ShereenAbuAkleh', "#Qatar's", '#الجزائر', '#قنا', '#حلمنا_واقع', '#قطر_التشيك', '#MOIQatar', '#molqtr', '#intellectual_property', '#يوم_الأمم_المتحدة', '#مجلس_التعاون', '#Croatia,', '#Qatar2022,', '#ICAOA41', '#قطر_2022', '#أسود_الأطلس', '#Doha,', '#مونديال_قطر_2022', '#ديما_مغرب', '#ميناء_الدوحة', '#Qatar', '#ألمانيا', '#الخارجية_القطرية', '#Türkiye,', '#UNRWA', '#NowisAll', '#الدوحة،', '#MoFaQatar', '#VisiontoReality', '#HumanRightsDay', '#Qatar2022', '#NowIsAll', '#Spain', '#카타르', '#España', '#Qatar_National_Day', '#WorldCupQatar2022', '#QNA_Sport', '#Our_Unity_Source_of_Our_Strength', '#Argentina', '#العرب', '#World_Cup', '#الداخلية_قطر', '#SolidarityWithPalestinianPeople', '#Paraguay,', '#بريطانيا', '#QatarNationalDay', '#World_Cup_Qatar_2022', '#QNA_Video', '#Caracas', '#إسبانيا', '#الكويت', '#Parguay', '#كرواتيا،', '#Venezuela', '#التشيك', '#مجلس_الشورى', '#QNA', '#جريدة_الراية', '#Safar,', '#الصين', '#الأونروا', '#Germany', '#icao', '#QatarWorldCup2022.', '#هنغاريا،', '#وزارة_العمل', '#WorldCup', '#Türkiye', '#QND2022', '#UNRWA,', '#MOFA_QATAR', '#الإمارات', '#QATAR2022', '#UNDay', '#Qatar2022!', '#Shura_Council', '#كازاخستان', '#اليوم_الوطني_القطري', '#وحدتنا_مصدر_قوتنا', '#FIFAWorldCup', '#MOFAQatar', '#تلفزيون_قطر', '#تركيا', '#discurso_SuAlteza_Consejo_de_Shura', '#كأس_العالم_قطر_2022', '#AlRihla', '#China', '##كأس_العالم_2022', '#قطر2022', '#UNMediaSeminar', '#عالوعد', '#GCC', '#قنا_انفوجرافيك', '#Algeria', '#كأس_العالم', '#LusailBoulevard', '#قطر']</t>
+          <t>['Qatar' 'Statement' 'بيان' nan 'بيان|' 'نائب' 'Deputy' 'انتخاب'
+ '#Our_Unity_Source_of_Our_Strength' 'En' '#اليوم_الوطني_القطري' 'بمناسبة'
+ 'يأتي' '#وحدتنا_مصدر_قوتنا' 'احتفال' 'تنتهي' 'La' 'احتفلت' 'Logo'
+ 'Viceprimer' '📽️نائب' 'سررت' 'I' 'In' "Qatar's" 'Pleased'
+ 'Secretary-General' 'Doha' 'اختيار' 'الأمين' 'دولة' '🎥|' 'سعدت' 'Día'
+ 'Asistente' 'Discurso' 'Al-Kuwari:' '📽️Deputy' 'THE' 'Qatar,' 'PCOC'
+ 'Minister' 'Remarks' 'Assistant' 'البيان' 'في' 'الكواري:' 'المدير' 'من'
+ 'مساعد' 'قطر' 'الأمم' 'UN' 'نفخر' 'Estado' 'Felicito' 'أتقدم' 'سمو' 'El'
+ 'discurso' 'Portavoz' 'Committee' 'Spokesperson' 'The' 'Over' 'U.S.' 'As'
+ 'Secretario' 'Gran' 'HH' 'Su' '#QNA_Video' 'Las' 'Ibrahim'
+ '#WorldCupQatar2022' 'Wael' 'Ahmed' '#مونديال_قطر_2022' 'السفير' 'بوصولك'
+ 'Acaba' 'During' 'الوفد' 'Los' 'Foreign' 'Arab' 'Special' 'ILO' 'On'
+ 'تستضيف' 'منظمة' 'المبعوث' 'المتحدث' 'القادة' 'FALTAN' 'Parte'
+ 'Ministerio' 'GCC' 'FIFA' 'Part' 'وزارة' 'اللجنة' '🎥' 'Un' 'جانب'
+ 'Inauguración' 'وزير' 'افتتاح' '¡Estas' 'No' 'سفارات' 'مدير' 'أكد' "HH's"
+ 'Today,' 'يؤكد' 'تناول' 'نشارك' 'H.E' 'باقي' '30' 'حضرة' 'Comandante'
+ 'Tajikistan' 'أهنئ' '¡No' '🏆' 'Infographic' 'Ministry' 'تؤمن' 'سفارة'
+ 'إنفوجراف|' 'Esta' 'Ministerial' 'African' 'حضرت' 'انعقاد' 'المجموعة'
+ '#قنا_انفوجرافيك' 'مراسم' 'التصريحات' 'Les' 'Una' 'paraguay' 'Desde'
+ 'Paraguay' 'Museum' '#Qatar' 'لقطات' '📌']</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>['#QatarWorldCup', "#Qatar's", '#WorldCup2022.', '#QNA', '#Floriade', '#Safar,', '#Qatar’s', '#اليوم_الوطني_القطري', '#Qatar2022', '#وحدتنا_مصدر_قوتنا', '#molqtr', '#FIFAWorldCup', '#Canberra', '#Qatar_National_Day', '#RemembranceDay2022', '#MOFAQatar', '#WorldCup2022', '#Hungary,', '#كأس_العالم_قطر_2022', '#Our_Unity_Source_of_Our_Strength', '#COP27', '#Egypt', '#قطر2022', '#SolidarityWithPalestinianPeople', '#WorldCup', '#Paraguay,', '#Qatar', '#UNRWA,', '#Kyrgyzstan,', '#Algeria', '#World_Cup_Qatar_2022', '#Azerbaijan', '#QATAR2022', '#UNDay', '#Türkiye,', '#Shura_Council', '#US.', '#Spain,']</t>
+          <t>['Statement' 'Spokesperson' 'Assistant' 'Deputy' 'Minister' 'Qatar' nan
+ 'تنتهي' 'Pleased' 'بمناسبة' '#Our_Unity_Source_of_Our_Strength' 'I'
+ 'Doha' '📽️Deputy' 'In' 'PCOC' 'Qatar,' 'THE' 'The' 'International'
+ 'Committee' 'Over' 'Participated' 'As' 'U.S.' 'Today,' 'Was' 'HH' 'Great'
+ 'بعد' 'HE' 'Be' 'Japanese' 'Read' 'Special' 'Qatar’s' 'Infographic'
+ 'Arab' 'ILO' 'On' 'FIFA' 'Inauguration' 'Here' "HH's" 'Part' 'Ministry'
+ 'H.E' 'Ministerial' 'Come' '🎥' 'Paraguay']</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>['#MOFAQatar', '#CR.']</t>
+          <t>[nan 'Statement' 'El']</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>['#قطر_2022', '#Qatar', '#قنا_فيديو', '#قنا_رياضي', '#LusailBoulevard', '#كأس_العالم_قطر_2022', '#مونديال_قطر2022']</t>
+          <t>[nan '#قنا_فيديو' 'As']</t>
         </is>
       </c>
     </row>

--- a/interim/qatar_embassies_stats.xlsx
+++ b/interim/qatar_embassies_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['ar' 'ca' 'es' 'id']</t>
+          <t>['ar' 'ca' 'es' 'so' 'id']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1099,39 +1099,39 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['ar' 'undetected' 'en']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['fr' 'so' 'ar']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['en' 'ar' 'it' 'af' 'fr']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['ar' 'es' 'en' 'fr' 'de' 'id' 'undetected' 'ca' 'tr' 'pl' 'tl']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['en' 'ar' 'pt']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['en' 'ar' 'ja' 'de' 'id' 'pt' 'fr']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>['ar' 'undetected']</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['fr' 'so' 'ar']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['en' 'ar' 'it' 'af' 'fr']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['ar' 'es' 'en' 'fr' 'de' 'id' 'undetected' 'ca' 'tr' 'pl' 'tl']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['en' 'ar' 'pt']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['en' 'ar' 'ja' 'id' 'fr']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>['ar' 'undetected']</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>['en' 'es' 'ar' 'it' 'sv']</t>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['ar' 'en' 'pl' 'undetected' 'id']</t>
+          <t>['pl' 'en' 'ar' 'undetected' 'id']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>['ar' 'es' 'fr' 'en' 'undetected']</t>
+          <t>['ar' 'es' 'fr' 'en' 'so' 'undetected']</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>['ar' 'en' 'fr' 'undetected' 'nl' 'tr' 'id' 'ca' 'de' 'es']</t>
+          <t>['ar' 'en' 'fr' 'undetected' 'nl' 'tr' 'id' 'ca' 'es']</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>['ar' 'es' 'en' 'undetected' 'pt' 'hu' 'fa' 'ca' 'so' 'et' 'id']</t>
+          <t>['ar' 'es' 'en' 'undetected' 'pt' 'hu' 'fa' 'ca' 'id' 'et']</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>['ar' 'es' 'undetected' 'en']</t>
+          <t>['ca' 'ar' 'es' 'undetected' 'en']</t>
         </is>
       </c>
     </row>
@@ -1487,6 +1487,164 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>hasImages</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>42</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>66</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1305</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14</v>
+      </c>
+      <c r="K8" t="n">
+        <v>108</v>
+      </c>
+      <c r="L8" t="n">
+        <v>44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>30</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>55</v>
+      </c>
+      <c r="P8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>251</v>
+      </c>
+      <c r="R8" t="n">
+        <v>168</v>
+      </c>
+      <c r="S8" t="n">
+        <v>43</v>
+      </c>
+      <c r="T8" t="n">
+        <v>55</v>
+      </c>
+      <c r="U8" t="n">
+        <v>187</v>
+      </c>
+      <c r="V8" t="n">
+        <v>443</v>
+      </c>
+      <c r="W8" t="n">
+        <v>169</v>
+      </c>
+      <c r="X8" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>hasVideos</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>140</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>62</v>
+      </c>
+      <c r="R9" t="n">
+        <v>39</v>
+      </c>
+      <c r="S9" t="n">
+        <v>12</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>64</v>
+      </c>
+      <c r="W9" t="n">
+        <v>11</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
